--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_15_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_15_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>191494.2667365993</v>
+        <v>183247.8955374894</v>
       </c>
     </row>
     <row r="7">
@@ -898,10 +898,10 @@
         <v>2.055612675827562</v>
       </c>
       <c r="C5" t="n">
-        <v>2.333801857206588</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2.333801857206588</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2.333801857206589</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.333801857206589</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.333801857206588</v>
+        <v>2.333801857206589</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.333801857206588</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2.333801857206588</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2.055612675827562</v>
+        <v>2.333801857206589</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>2.333801857206589</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>2.055612675827561</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>2.333801857206589</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.333801857206588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.333801857206588</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2.333801857206588</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>2.333801857206589</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2.055612675827562</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2.333801857206589</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>2.333801857206588</v>
+        <v>2.333801857206589</v>
       </c>
       <c r="S7" t="n">
-        <v>2.055612675827562</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,73 +1132,73 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.48840553640751</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7805761627760656</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>21.70782937363144</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>25.53179556812842</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>25.53179556812842</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>25.53179556812842</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>25.53179556812842</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>25.53179556812842</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>25.53179556812842</v>
       </c>
       <c r="T9" t="n">
-        <v>25.53179556812842</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>25.53179556812842</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>22.48840553640751</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>25.53179556812842</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>25.53179556812842</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>25.53179556812842</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>22.48840553640751</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>25.53179556812842</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>25.53179556812842</v>
       </c>
     </row>
     <row r="11">
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>84.51034755955924</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H11" t="n">
-        <v>27.75718570550332</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T11" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1463,7 +1463,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>92.18779416180787</v>
+        <v>92.18779416180689</v>
       </c>
       <c r="H12" t="n">
         <v>43.90453113913449</v>
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>135.4602252892499</v>
       </c>
       <c r="I13" t="n">
-        <v>75.43872475250878</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>11.68284247578062</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S13" t="n">
         <v>154.9126128011615</v>
@@ -1584,7 +1584,7 @@
         <v>237.5909258267186</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3402845023203</v>
+        <v>97.03727733961196</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1593,7 +1593,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>152.5144260260335</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>235.0453814613127</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>277.176001558223</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>38.32372995151297</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>163.8185422817731</v>
       </c>
       <c r="H16" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>40.58365508760116</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>210.3574609660023</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>239.6658916896342</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>398.5660300744983</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>99.89576084646249</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>41.34546638575365</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>10.5771744966618</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>237.5909258267186</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>37.22221050126642</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.90941067458682</v>
+        <v>2.420123464220021</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>67.92617026620118</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>29.6626239099728</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.1934741629804</v>
       </c>
       <c r="H23" t="n">
         <v>273.3605633293901</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>55.41979284087236</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.5139451490932</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6031844996746</v>
+        <v>185.8679406676974</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
@@ -2383,10 +2383,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>266.7195359908588</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.3086376620431906</v>
       </c>
       <c r="H25" t="n">
-        <v>91.66152348705614</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>70.41309819298111</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>4.168710382847181</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>152.0002409406371</v>
       </c>
       <c r="T25" t="n">
         <v>236.8768857774508</v>
@@ -2557,19 +2557,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>74.23950019510673</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>80.95579103889396</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>55.41979284087236</v>
       </c>
       <c r="T26" t="n">
-        <v>209.5139451490932</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6031844996746</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -2730,10 +2730,10 @@
         <v>163.6514265255614</v>
       </c>
       <c r="H28" t="n">
-        <v>133.9744142931138</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>70.41309819298111</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>4.168710382847181</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>152.0002409406371</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>236.8768857774508</v>
+        <v>229.7030482374162</v>
       </c>
       <c r="U28" t="n">
         <v>277.3311690974361</v>
@@ -2778,10 +2778,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>120.2054821024642</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>76.9863736143959</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.1934741629804</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>273.3605633293901</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>55.41979284087236</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.5139451490932</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.6031844996746</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>303.1031497228442</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>57.35129103071034</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>163.6514265255614</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.9744142931138</v>
       </c>
       <c r="I31" t="n">
         <v>70.41309819298111</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>4.168710382847181</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>152.0002409406371</v>
@@ -3006,10 +3006,10 @@
         <v>236.8768857774508</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3311690974361</v>
       </c>
       <c r="V31" t="n">
-        <v>166.383062309001</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3018,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.1934741629804</v>
       </c>
       <c r="H32" t="n">
-        <v>188.2634509757441</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>91.69590668074119</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -3204,7 +3204,7 @@
         <v>163.6514265255614</v>
       </c>
       <c r="H34" t="n">
-        <v>133.9744142931138</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>229.7030482374162</v>
       </c>
       <c r="U34" t="n">
-        <v>208.513679253064</v>
+        <v>277.3311690974361</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>256.9196865123011</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>273.3605633293901</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>55.41979284087236</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.5139451490932</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6031844996746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>178.3519176630643</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>39.087785201313</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>84.02241562054233</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.6514265255614</v>
       </c>
       <c r="H37" t="n">
-        <v>133.9744142931138</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>70.41309819298111</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>4.168710382847181</v>
       </c>
       <c r="S37" t="n">
         <v>152.0002409406371</v>
@@ -3480,7 +3480,7 @@
         <v>236.8768857774508</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3311690974361</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>67.25765815688955</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>59.21057635220475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3669,19 +3669,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.6514265255614</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.9744142931138</v>
       </c>
       <c r="I40" t="n">
-        <v>70.41309819298111</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.168710382847181</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>152.0002409406371</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>236.8768857774508</v>
@@ -3723,13 +3723,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>199.058077139921</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>162.5441124415931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>298.2191800651339</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>149.248335683815</v>
+        <v>398.1934741629804</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>273.3605633293901</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -3909,7 +3909,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>62.94832372522053</v>
       </c>
       <c r="G43" t="n">
         <v>163.6514265255614</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>152.0002409406371</v>
       </c>
       <c r="T43" t="n">
         <v>236.8768857774508</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3311690974361</v>
       </c>
       <c r="V43" t="n">
-        <v>18.43444285618633</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>114.4038652865892</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>201.4998936714288</v>
+        <v>398.1934741629804</v>
       </c>
       <c r="H44" t="n">
         <v>273.3605633293901</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>55.41979284087236</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.5139451490932</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4137,13 +4137,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0.1988776547013333</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>70.41309819298111</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.168710382847181</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>152.0002409406371</v>
@@ -4191,19 +4191,19 @@
         <v>236.8768857774508</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3311690974361</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>224.4086548786323</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.901455375256504</v>
+        <v>2.544079761916516</v>
       </c>
       <c r="C5" t="n">
         <v>2.544079761916516</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1867041485765271</v>
+        <v>2.544079761916516</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1867041485765271</v>
+        <v>2.544079761916516</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1867041485765271</v>
+        <v>2.544079761916516</v>
       </c>
       <c r="G5" t="n">
         <v>0.1867041485765271</v>
@@ -4567,52 +4567,52 @@
         <v>0.1867041485765271</v>
       </c>
       <c r="J5" t="n">
-        <v>2.497167987211049</v>
+        <v>0.1867041485765271</v>
       </c>
       <c r="K5" t="n">
-        <v>2.497167987211049</v>
+        <v>0.1867041485765271</v>
       </c>
       <c r="L5" t="n">
-        <v>4.807631825845571</v>
+        <v>2.49716798721105</v>
       </c>
       <c r="M5" t="n">
-        <v>7.118095664480093</v>
+        <v>4.807631825845572</v>
       </c>
       <c r="N5" t="n">
-        <v>9.335207428826353</v>
+        <v>7.024743590191832</v>
       </c>
       <c r="O5" t="n">
-        <v>9.335207428826353</v>
+        <v>9.335207428826354</v>
       </c>
       <c r="P5" t="n">
-        <v>9.335207428826353</v>
+        <v>9.335207428826354</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.335207428826353</v>
+        <v>9.335207428826354</v>
       </c>
       <c r="R5" t="n">
-        <v>9.335207428826353</v>
+        <v>9.335207428826354</v>
       </c>
       <c r="S5" t="n">
-        <v>9.335207428826353</v>
+        <v>6.977831815486366</v>
       </c>
       <c r="T5" t="n">
-        <v>9.335207428826353</v>
+        <v>6.977831815486366</v>
       </c>
       <c r="U5" t="n">
-        <v>9.335207428826353</v>
+        <v>6.977831815486366</v>
       </c>
       <c r="V5" t="n">
-        <v>9.335207428826353</v>
+        <v>6.977831815486366</v>
       </c>
       <c r="W5" t="n">
-        <v>9.335207428826353</v>
+        <v>6.977831815486366</v>
       </c>
       <c r="X5" t="n">
-        <v>9.335207428826353</v>
+        <v>6.977831815486366</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.977831815486365</v>
+        <v>4.620456202146377</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.620456202146377</v>
+        <v>2.544079761916516</v>
       </c>
       <c r="C6" t="n">
-        <v>2.263080588806389</v>
+        <v>2.544079761916516</v>
       </c>
       <c r="D6" t="n">
-        <v>2.263080588806389</v>
+        <v>2.544079761916516</v>
       </c>
       <c r="E6" t="n">
-        <v>2.263080588806389</v>
+        <v>2.544079761916516</v>
       </c>
       <c r="F6" t="n">
-        <v>2.263080588806389</v>
+        <v>2.544079761916516</v>
       </c>
       <c r="G6" t="n">
-        <v>2.263080588806389</v>
+        <v>2.544079761916516</v>
       </c>
       <c r="H6" t="n">
         <v>0.1867041485765271</v>
@@ -4652,46 +4652,46 @@
         <v>0.1867041485765271</v>
       </c>
       <c r="L6" t="n">
-        <v>2.403815912922788</v>
+        <v>2.403815912922787</v>
       </c>
       <c r="M6" t="n">
-        <v>4.71427975155731</v>
+        <v>4.714279751557309</v>
       </c>
       <c r="N6" t="n">
-        <v>7.02474359019183</v>
+        <v>7.024743590191832</v>
       </c>
       <c r="O6" t="n">
-        <v>9.335207428826353</v>
+        <v>9.335207428826354</v>
       </c>
       <c r="P6" t="n">
-        <v>9.335207428826353</v>
+        <v>9.335207428826354</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.335207428826353</v>
+        <v>9.335207428826354</v>
       </c>
       <c r="R6" t="n">
-        <v>9.335207428826353</v>
+        <v>9.335207428826354</v>
       </c>
       <c r="S6" t="n">
-        <v>9.335207428826353</v>
+        <v>6.977831815486366</v>
       </c>
       <c r="T6" t="n">
-        <v>9.335207428826353</v>
+        <v>4.901455375256505</v>
       </c>
       <c r="U6" t="n">
-        <v>9.335207428826353</v>
+        <v>4.901455375256505</v>
       </c>
       <c r="V6" t="n">
-        <v>9.335207428826353</v>
+        <v>2.544079761916516</v>
       </c>
       <c r="W6" t="n">
-        <v>9.335207428826353</v>
+        <v>2.544079761916516</v>
       </c>
       <c r="X6" t="n">
-        <v>9.335207428826353</v>
+        <v>2.544079761916516</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.977831815486365</v>
+        <v>2.544079761916516</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>6.977831815486366</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.977831815486366</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.620456202146377</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.620456202146377</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.620456202146377</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4.620456202146377</v>
+      </c>
+      <c r="H7" t="n">
         <v>2.544079761916516</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1867041485765271</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.1867041485765271</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.1867041485765271</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.1867041485765271</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.1867041485765271</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.1867041485765271</v>
       </c>
       <c r="I7" t="n">
         <v>0.1867041485765271</v>
       </c>
       <c r="J7" t="n">
-        <v>2.497167987211049</v>
+        <v>2.49716798721105</v>
       </c>
       <c r="K7" t="n">
-        <v>4.807631825845571</v>
+        <v>4.807631825845572</v>
       </c>
       <c r="L7" t="n">
-        <v>7.118095664480093</v>
+        <v>4.807631825845572</v>
       </c>
       <c r="M7" t="n">
-        <v>7.118095664480093</v>
+        <v>4.807631825845572</v>
       </c>
       <c r="N7" t="n">
-        <v>7.118095664480093</v>
+        <v>4.807631825845572</v>
       </c>
       <c r="O7" t="n">
-        <v>7.118095664480093</v>
+        <v>4.807631825845572</v>
       </c>
       <c r="P7" t="n">
-        <v>7.118095664480093</v>
+        <v>7.118095664480094</v>
       </c>
       <c r="Q7" t="n">
-        <v>9.335207428826353</v>
+        <v>9.335207428826354</v>
       </c>
       <c r="R7" t="n">
-        <v>6.977831815486365</v>
+        <v>6.977831815486366</v>
       </c>
       <c r="S7" t="n">
-        <v>4.901455375256504</v>
+        <v>6.977831815486366</v>
       </c>
       <c r="T7" t="n">
-        <v>4.901455375256504</v>
+        <v>6.977831815486366</v>
       </c>
       <c r="U7" t="n">
-        <v>4.901455375256504</v>
+        <v>6.977831815486366</v>
       </c>
       <c r="V7" t="n">
-        <v>4.901455375256504</v>
+        <v>6.977831815486366</v>
       </c>
       <c r="W7" t="n">
-        <v>4.901455375256504</v>
+        <v>6.977831815486366</v>
       </c>
       <c r="X7" t="n">
-        <v>4.901455375256504</v>
+        <v>6.977831815486366</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.901455375256504</v>
+        <v>6.977831815486366</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.83223613850929</v>
+        <v>24.75810479333664</v>
       </c>
       <c r="C8" t="n">
-        <v>27.83223613850929</v>
+        <v>24.75810479333664</v>
       </c>
       <c r="D8" t="n">
-        <v>2.042543645450274</v>
+        <v>24.75810479333664</v>
       </c>
       <c r="E8" t="n">
-        <v>2.042543645450274</v>
+        <v>23.96964402285577</v>
       </c>
       <c r="F8" t="n">
-        <v>2.042543645450274</v>
+        <v>23.96964402285577</v>
       </c>
       <c r="G8" t="n">
-        <v>2.042543645450274</v>
+        <v>23.96964402285577</v>
       </c>
       <c r="H8" t="n">
-        <v>2.042543645450274</v>
+        <v>23.96964402285577</v>
       </c>
       <c r="I8" t="n">
         <v>2.042543645450274</v>
@@ -4807,22 +4807,22 @@
         <v>2.042543645450274</v>
       </c>
       <c r="K8" t="n">
-        <v>16.50424212177907</v>
+        <v>8.577678294169626</v>
       </c>
       <c r="L8" t="n">
-        <v>30.60819083156565</v>
+        <v>22.6816270039562</v>
       </c>
       <c r="M8" t="n">
-        <v>51.44783489585013</v>
+        <v>43.52127106824068</v>
       </c>
       <c r="N8" t="n">
-        <v>73.37443004983217</v>
+        <v>65.44786622222273</v>
       </c>
       <c r="O8" t="n">
-        <v>91.91211213599054</v>
+        <v>83.9855483083811</v>
       </c>
       <c r="P8" t="n">
-        <v>102.1271822725137</v>
+        <v>94.20061844490425</v>
       </c>
       <c r="Q8" t="n">
         <v>102.1271822725137</v>
@@ -4834,10 +4834,10 @@
         <v>102.1271822725137</v>
       </c>
       <c r="T8" t="n">
-        <v>76.33748977945467</v>
+        <v>102.1271822725137</v>
       </c>
       <c r="U8" t="n">
-        <v>76.33748977945467</v>
+        <v>102.1271822725137</v>
       </c>
       <c r="V8" t="n">
         <v>76.33748977945467</v>
@@ -4846,10 +4846,10 @@
         <v>50.54779728639566</v>
       </c>
       <c r="X8" t="n">
-        <v>50.54779728639566</v>
+        <v>24.75810479333664</v>
       </c>
       <c r="Y8" t="n">
-        <v>50.54779728639566</v>
+        <v>24.75810479333664</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50.54779728639566</v>
+        <v>76.33748977945467</v>
       </c>
       <c r="C9" t="n">
-        <v>50.54779728639566</v>
+        <v>76.33748977945467</v>
       </c>
       <c r="D9" t="n">
-        <v>50.54779728639566</v>
+        <v>76.33748977945467</v>
       </c>
       <c r="E9" t="n">
+        <v>53.6219286315683</v>
+      </c>
+      <c r="F9" t="n">
         <v>27.83223613850929</v>
       </c>
-      <c r="F9" t="n">
-        <v>2.042543645450274</v>
-      </c>
       <c r="G9" t="n">
-        <v>2.042543645450274</v>
+        <v>27.83223613850929</v>
       </c>
       <c r="H9" t="n">
         <v>2.042543645450274</v>
@@ -4898,7 +4898,7 @@
         <v>70.95817322891129</v>
       </c>
       <c r="O9" t="n">
-        <v>89.99226711672033</v>
+        <v>89.99226711672031</v>
       </c>
       <c r="P9" t="n">
         <v>102.1271822725137</v>
@@ -4910,25 +4910,25 @@
         <v>102.1271822725137</v>
       </c>
       <c r="S9" t="n">
-        <v>102.1271822725137</v>
+        <v>76.33748977945467</v>
       </c>
       <c r="T9" t="n">
         <v>76.33748977945467</v>
       </c>
       <c r="U9" t="n">
-        <v>50.54779728639566</v>
+        <v>76.33748977945467</v>
       </c>
       <c r="V9" t="n">
-        <v>50.54779728639566</v>
+        <v>76.33748977945467</v>
       </c>
       <c r="W9" t="n">
-        <v>50.54779728639566</v>
+        <v>76.33748977945467</v>
       </c>
       <c r="X9" t="n">
-        <v>50.54779728639566</v>
+        <v>76.33748977945467</v>
       </c>
       <c r="Y9" t="n">
-        <v>50.54779728639566</v>
+        <v>76.33748977945467</v>
       </c>
     </row>
     <row r="10">
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>102.1271822725137</v>
+        <v>27.83223613850929</v>
       </c>
       <c r="C10" t="n">
-        <v>79.41162112462732</v>
+        <v>27.83223613850929</v>
       </c>
       <c r="D10" t="n">
-        <v>53.6219286315683</v>
+        <v>27.83223613850929</v>
       </c>
       <c r="E10" t="n">
         <v>27.83223613850929</v>
@@ -4965,22 +4965,22 @@
         <v>27.31902125789741</v>
       </c>
       <c r="K10" t="n">
-        <v>27.31902125789741</v>
+        <v>52.59549887034455</v>
       </c>
       <c r="L10" t="n">
-        <v>27.60854596704869</v>
+        <v>77.87197648279169</v>
       </c>
       <c r="M10" t="n">
-        <v>28.44328016829306</v>
+        <v>78.70671068403607</v>
       </c>
       <c r="N10" t="n">
-        <v>53.7197577807402</v>
+        <v>80.79844473141408</v>
       </c>
       <c r="O10" t="n">
-        <v>78.99623539318733</v>
+        <v>80.79844473141408</v>
       </c>
       <c r="P10" t="n">
-        <v>78.99623539318733</v>
+        <v>102.1271822725137</v>
       </c>
       <c r="Q10" t="n">
         <v>102.1271822725137</v>
@@ -4995,19 +4995,19 @@
         <v>102.1271822725137</v>
       </c>
       <c r="U10" t="n">
-        <v>102.1271822725137</v>
+        <v>79.41162112462732</v>
       </c>
       <c r="V10" t="n">
-        <v>102.1271822725137</v>
+        <v>79.41162112462732</v>
       </c>
       <c r="W10" t="n">
-        <v>102.1271822725137</v>
+        <v>53.6219286315683</v>
       </c>
       <c r="X10" t="n">
-        <v>102.1271822725137</v>
+        <v>53.6219286315683</v>
       </c>
       <c r="Y10" t="n">
-        <v>102.1271822725137</v>
+        <v>27.83223613850929</v>
       </c>
     </row>
     <row r="11">
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1342.315579046525</v>
+        <v>947.5247238974906</v>
       </c>
       <c r="C11" t="n">
-        <v>915.4148490598247</v>
+        <v>947.5247238974906</v>
       </c>
       <c r="D11" t="n">
-        <v>915.4148490598247</v>
+        <v>524.2321030824909</v>
       </c>
       <c r="E11" t="n">
-        <v>489.4379092076823</v>
+        <v>524.2321030824909</v>
       </c>
       <c r="F11" t="n">
-        <v>64.31372739708252</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="G11" t="n">
-        <v>64.31372739708252</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H11" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I11" t="n">
         <v>68.08893453872679</v>
       </c>
       <c r="J11" t="n">
-        <v>184.2963411149081</v>
+        <v>184.2963411149079</v>
       </c>
       <c r="K11" t="n">
-        <v>366.7061291250301</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L11" t="n">
-        <v>598.9981372303105</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M11" t="n">
-        <v>862.6140377103483</v>
+        <v>862.6140377103482</v>
       </c>
       <c r="N11" t="n">
         <v>1131.245262923652</v>
       </c>
       <c r="O11" t="n">
-        <v>1382.739131455148</v>
+        <v>1382.739131455147</v>
       </c>
       <c r="P11" t="n">
         <v>1591.77691709091</v>
@@ -5068,25 +5068,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S11" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T11" t="n">
-        <v>1600.530719422884</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="U11" t="n">
-        <v>1342.315579046525</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="V11" t="n">
-        <v>1342.315579046525</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="W11" t="n">
-        <v>1342.315579046525</v>
+        <v>1352.8619939426</v>
       </c>
       <c r="X11" t="n">
-        <v>1342.315579046525</v>
+        <v>1352.8619939426</v>
       </c>
       <c r="Y11" t="n">
-        <v>1342.315579046525</v>
+        <v>947.5247238974906</v>
       </c>
     </row>
     <row r="12">
@@ -5096,61 +5096,61 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>593.4367873432383</v>
+        <v>593.4367873432374</v>
       </c>
       <c r="C12" t="n">
-        <v>475.9308838607431</v>
+        <v>475.9308838607421</v>
       </c>
       <c r="D12" t="n">
-        <v>372.0909253760281</v>
+        <v>372.0909253760273</v>
       </c>
       <c r="E12" t="n">
-        <v>267.3889916489653</v>
+        <v>267.3889916489645</v>
       </c>
       <c r="F12" t="n">
-        <v>173.7431613318694</v>
+        <v>173.7431613318686</v>
       </c>
       <c r="G12" t="n">
-        <v>80.6241773300433</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H12" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I12" t="n">
-        <v>51.80960935527477</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J12" t="n">
-        <v>117.9640444811038</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K12" t="n">
-        <v>243.7326700523439</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L12" t="n">
-        <v>615.5390152432144</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M12" t="n">
-        <v>824.8137137242295</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N12" t="n">
-        <v>1041.968695556546</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O12" t="n">
-        <v>1237.012362544032</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P12" t="n">
-        <v>1685.929917764137</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q12" t="n">
-        <v>1780.360625738643</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R12" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="S12" t="n">
-        <v>1749.847329510332</v>
+        <v>1749.847329510331</v>
       </c>
       <c r="T12" t="n">
-        <v>1611.735244555136</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U12" t="n">
         <v>1427.028547670862</v>
@@ -5159,13 +5159,13 @@
         <v>1222.055408810128</v>
       </c>
       <c r="W12" t="n">
-        <v>1025.534031643346</v>
+        <v>1025.534031643345</v>
       </c>
       <c r="X12" t="n">
-        <v>862.0566854100086</v>
+        <v>862.0566854100077</v>
       </c>
       <c r="Y12" t="n">
-        <v>722.363796763301</v>
+        <v>722.3637967633001</v>
       </c>
     </row>
     <row r="13">
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>414.7786835769092</v>
+        <v>508.3940124658873</v>
       </c>
       <c r="C13" t="n">
-        <v>414.7786835769092</v>
+        <v>336.4214493448033</v>
       </c>
       <c r="D13" t="n">
-        <v>414.7786835769092</v>
+        <v>173.104676471574</v>
       </c>
       <c r="E13" t="n">
-        <v>414.7786835769092</v>
+        <v>173.104676471574</v>
       </c>
       <c r="F13" t="n">
-        <v>414.7786835769092</v>
+        <v>173.104676471574</v>
       </c>
       <c r="G13" t="n">
-        <v>249.3054085448152</v>
+        <v>173.104676471574</v>
       </c>
       <c r="H13" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I13" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J13" t="n">
-        <v>148.0721041840599</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K13" t="n">
-        <v>463.8388611422041</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L13" t="n">
-        <v>907.7796269426851</v>
+        <v>912.7564163623084</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.832974520304</v>
+        <v>1055.701197344776</v>
       </c>
       <c r="N13" t="n">
-        <v>1102.831680612252</v>
+        <v>1152.699903436724</v>
       </c>
       <c r="O13" t="n">
-        <v>1551.749235832357</v>
+        <v>1238.993031259048</v>
       </c>
       <c r="P13" t="n">
-        <v>1622.490343973493</v>
+        <v>1622.490343973492</v>
       </c>
       <c r="Q13" t="n">
         <v>1813.808303919614</v>
@@ -5226,25 +5226,25 @@
         <v>1802.007452933977</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.530066266138</v>
+        <v>1645.530066266137</v>
       </c>
       <c r="T13" t="n">
-        <v>1405.539232097735</v>
+        <v>1405.539232097734</v>
       </c>
       <c r="U13" t="n">
-        <v>1125.39753058024</v>
+        <v>1307.52178023954</v>
       </c>
       <c r="V13" t="n">
-        <v>843.6860631882685</v>
+        <v>1025.810312847569</v>
       </c>
       <c r="W13" t="n">
-        <v>568.8336593607814</v>
+        <v>750.9579090200822</v>
       </c>
       <c r="X13" t="n">
-        <v>414.7786835769092</v>
+        <v>508.3940124658873</v>
       </c>
       <c r="Y13" t="n">
-        <v>414.7786835769092</v>
+        <v>508.3940124658873</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1402.088305087361</v>
+        <v>739.5445460431122</v>
       </c>
       <c r="C14" t="n">
-        <v>1402.088305087361</v>
+        <v>739.5445460431122</v>
       </c>
       <c r="D14" t="n">
-        <v>978.7956842723615</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="E14" t="n">
-        <v>978.7956842723615</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="F14" t="n">
-        <v>553.6715024617617</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="G14" t="n">
         <v>316.2519252281125</v>
@@ -5275,19 +5275,19 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I14" t="n">
-        <v>68.08893453872679</v>
+        <v>68.08893453872633</v>
       </c>
       <c r="J14" t="n">
-        <v>184.2963411149081</v>
+        <v>184.2963411149077</v>
       </c>
       <c r="K14" t="n">
-        <v>366.70612912503</v>
+        <v>366.7061291250296</v>
       </c>
       <c r="L14" t="n">
-        <v>598.9981372303104</v>
+        <v>598.9981372303099</v>
       </c>
       <c r="M14" t="n">
-        <v>862.6140377103482</v>
+        <v>862.6140377103477</v>
       </c>
       <c r="N14" t="n">
         <v>1131.245262923652</v>
@@ -5308,22 +5308,22 @@
         <v>1813.808303919614</v>
       </c>
       <c r="T14" t="n">
-        <v>1813.808303919614</v>
+        <v>1775.097465584752</v>
       </c>
       <c r="U14" t="n">
-        <v>1813.808303919614</v>
+        <v>1516.882325208393</v>
       </c>
       <c r="V14" t="n">
-        <v>1813.808303919614</v>
+        <v>1159.392910334642</v>
       </c>
       <c r="W14" t="n">
-        <v>1813.808303919614</v>
+        <v>1159.392910334642</v>
       </c>
       <c r="X14" t="n">
-        <v>1402.088305087361</v>
+        <v>1159.392910334642</v>
       </c>
       <c r="Y14" t="n">
-        <v>1402.088305087361</v>
+        <v>1159.392910334642</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>593.4367873432373</v>
+        <v>593.4367873432378</v>
       </c>
       <c r="C15" t="n">
-        <v>475.930883860742</v>
+        <v>475.9308838607426</v>
       </c>
       <c r="D15" t="n">
-        <v>372.0909253760271</v>
+        <v>372.0909253760275</v>
       </c>
       <c r="E15" t="n">
-        <v>267.3889916489643</v>
+        <v>267.3889916489647</v>
       </c>
       <c r="F15" t="n">
-        <v>173.7431613318684</v>
+        <v>173.7431613318688</v>
       </c>
       <c r="G15" t="n">
-        <v>80.62417733004328</v>
+        <v>80.62417733004349</v>
       </c>
       <c r="H15" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="I15" t="n">
-        <v>51.80960935527476</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J15" t="n">
-        <v>254.1641319694771</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K15" t="n">
-        <v>379.9327575407171</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L15" t="n">
-        <v>556.5716083713661</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M15" t="n">
-        <v>765.8463068523812</v>
+        <v>945.2060176780107</v>
       </c>
       <c r="N15" t="n">
-        <v>983.0012886846974</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O15" t="n">
-        <v>1178.044955672184</v>
+        <v>1357.404666497813</v>
       </c>
       <c r="P15" t="n">
-        <v>1331.443070518537</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q15" t="n">
-        <v>1780.360625738641</v>
+        <v>1674.905125453737</v>
       </c>
       <c r="R15" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S15" t="n">
-        <v>1749.84732951033</v>
+        <v>1749.847329510331</v>
       </c>
       <c r="T15" t="n">
-        <v>1611.735244555134</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U15" t="n">
-        <v>1427.028547670861</v>
+        <v>1427.028547670862</v>
       </c>
       <c r="V15" t="n">
-        <v>1222.055408810127</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W15" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X15" t="n">
-        <v>862.0566854100076</v>
+        <v>862.0566854100082</v>
       </c>
       <c r="Y15" t="n">
-        <v>722.3637967633</v>
+        <v>722.3637967633006</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>723.4058798477686</v>
+        <v>373.6112153359259</v>
       </c>
       <c r="C16" t="n">
-        <v>551.4333167266846</v>
+        <v>373.6112153359259</v>
       </c>
       <c r="D16" t="n">
-        <v>551.4333167266846</v>
+        <v>373.6112153359259</v>
       </c>
       <c r="E16" t="n">
-        <v>551.4333167266846</v>
+        <v>373.6112153359259</v>
       </c>
       <c r="F16" t="n">
-        <v>379.5715425012449</v>
+        <v>201.7494411104863</v>
       </c>
       <c r="G16" t="n">
-        <v>214.0982674691509</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H16" t="n">
-        <v>77.26975707596921</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I16" t="n">
         <v>36.27616607839228</v>
@@ -5439,22 +5439,22 @@
         <v>148.0721041840598</v>
       </c>
       <c r="K16" t="n">
-        <v>463.8388611422041</v>
+        <v>216.556252028182</v>
       </c>
       <c r="L16" t="n">
-        <v>595.0234223693769</v>
+        <v>309.0520751284041</v>
       </c>
       <c r="M16" t="n">
-        <v>693.0767699469961</v>
+        <v>757.9696303485086</v>
       </c>
       <c r="N16" t="n">
-        <v>790.0754760389441</v>
+        <v>1206.887185568613</v>
       </c>
       <c r="O16" t="n">
-        <v>1238.993031259049</v>
+        <v>1655.804740788718</v>
       </c>
       <c r="P16" t="n">
-        <v>1622.490343973492</v>
+        <v>1726.545848929853</v>
       </c>
       <c r="Q16" t="n">
         <v>1813.808303919614</v>
@@ -5463,25 +5463,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S16" t="n">
-        <v>1657.330917251774</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T16" t="n">
-        <v>1657.330917251774</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="U16" t="n">
-        <v>1657.330917251774</v>
+        <v>1293.675768233716</v>
       </c>
       <c r="V16" t="n">
-        <v>1657.330917251774</v>
+        <v>1081.193484429673</v>
       </c>
       <c r="W16" t="n">
-        <v>1382.478513424287</v>
+        <v>806.3410806021865</v>
       </c>
       <c r="X16" t="n">
-        <v>1139.914616870092</v>
+        <v>563.7771840479916</v>
       </c>
       <c r="Y16" t="n">
-        <v>913.5718485598343</v>
+        <v>563.7771840479916</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1813.808303919614</v>
+        <v>1142.136495613312</v>
       </c>
       <c r="C17" t="n">
-        <v>1386.907573932914</v>
+        <v>1142.136495613312</v>
       </c>
       <c r="D17" t="n">
-        <v>1386.907573932914</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="E17" t="n">
-        <v>960.9306340807717</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="F17" t="n">
         <v>718.8438747983129</v>
@@ -5512,16 +5512,16 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I17" t="n">
-        <v>68.08893453872668</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J17" t="n">
-        <v>184.296341114908</v>
+        <v>184.2963411149083</v>
       </c>
       <c r="K17" t="n">
-        <v>366.7061291250299</v>
+        <v>366.7061291250301</v>
       </c>
       <c r="L17" t="n">
-        <v>598.9981372303101</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M17" t="n">
         <v>862.6140377103479</v>
@@ -5545,22 +5545,22 @@
         <v>1813.808303919614</v>
       </c>
       <c r="T17" t="n">
-        <v>1813.808303919614</v>
+        <v>1600.530719422884</v>
       </c>
       <c r="U17" t="n">
-        <v>1813.808303919614</v>
+        <v>1499.625910487063</v>
       </c>
       <c r="V17" t="n">
-        <v>1813.808303919614</v>
+        <v>1142.136495613312</v>
       </c>
       <c r="W17" t="n">
-        <v>1813.808303919614</v>
+        <v>1142.136495613312</v>
       </c>
       <c r="X17" t="n">
-        <v>1813.808303919614</v>
+        <v>1142.136495613312</v>
       </c>
       <c r="Y17" t="n">
-        <v>1813.808303919614</v>
+        <v>1142.136495613312</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I18" t="n">
-        <v>51.80960935527475</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J18" t="n">
-        <v>117.9640444811038</v>
+        <v>141.4213503255156</v>
       </c>
       <c r="K18" t="n">
-        <v>243.7326700523438</v>
+        <v>267.1899758967556</v>
       </c>
       <c r="L18" t="n">
-        <v>420.3715208829927</v>
+        <v>443.8288267274046</v>
       </c>
       <c r="M18" t="n">
-        <v>629.6462193640077</v>
+        <v>653.1035252084196</v>
       </c>
       <c r="N18" t="n">
-        <v>846.801201196324</v>
+        <v>870.2585070407358</v>
       </c>
       <c r="O18" t="n">
-        <v>1295.718756416429</v>
+        <v>1065.302174028222</v>
       </c>
       <c r="P18" t="n">
-        <v>1685.929917764136</v>
+        <v>1225.987570233631</v>
       </c>
       <c r="Q18" t="n">
-        <v>1780.360625738641</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R18" t="n">
         <v>1813.808303919613</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>537.6629190242076</v>
+        <v>78.03926343773941</v>
       </c>
       <c r="C19" t="n">
-        <v>537.6629190242076</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="D19" t="n">
-        <v>374.3461461509783</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="E19" t="n">
-        <v>208.1379403038318</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="F19" t="n">
         <v>36.27616607839228</v>
@@ -5676,19 +5676,19 @@
         <v>70.15038753583897</v>
       </c>
       <c r="K19" t="n">
-        <v>385.9171444939832</v>
+        <v>138.6345353799611</v>
       </c>
       <c r="L19" t="n">
-        <v>758.1571395025708</v>
+        <v>356.3700675499418</v>
       </c>
       <c r="M19" t="n">
-        <v>1207.074694722675</v>
+        <v>805.2876227700463</v>
       </c>
       <c r="N19" t="n">
-        <v>1304.073400814623</v>
+        <v>1254.205177990151</v>
       </c>
       <c r="O19" t="n">
-        <v>1390.366528636948</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P19" t="n">
         <v>1773.863841351391</v>
@@ -5697,28 +5697,28 @@
         <v>1813.808303919614</v>
       </c>
       <c r="R19" t="n">
-        <v>1803.124289276521</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S19" t="n">
-        <v>1803.124289276521</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T19" t="n">
-        <v>1563.133455108119</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="U19" t="n">
-        <v>1563.133455108119</v>
+        <v>1293.675768233716</v>
       </c>
       <c r="V19" t="n">
-        <v>1281.421987716147</v>
+        <v>1011.964300841745</v>
       </c>
       <c r="W19" t="n">
-        <v>1006.56958388866</v>
+        <v>737.1118970142579</v>
       </c>
       <c r="X19" t="n">
-        <v>764.0056873344655</v>
+        <v>494.548000460063</v>
       </c>
       <c r="Y19" t="n">
-        <v>537.6629190242076</v>
+        <v>268.2052321498051</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>924.0677093056136</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="C20" t="n">
-        <v>497.1669793189137</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="D20" t="n">
-        <v>73.87435850391392</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="E20" t="n">
-        <v>73.87435850391392</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="F20" t="n">
-        <v>73.87435850391392</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="G20" t="n">
         <v>36.27616607839228</v>
@@ -5749,19 +5749,19 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I20" t="n">
-        <v>68.08893453872672</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J20" t="n">
-        <v>184.296341114908</v>
+        <v>184.2963411149079</v>
       </c>
       <c r="K20" t="n">
-        <v>366.7061291250297</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L20" t="n">
         <v>598.9981372303102</v>
       </c>
       <c r="M20" t="n">
-        <v>862.6140377103479</v>
+        <v>862.6140377103482</v>
       </c>
       <c r="N20" t="n">
         <v>1131.245262923652</v>
@@ -5779,25 +5779,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S20" t="n">
-        <v>1749.253343642253</v>
+        <v>1811.363734763836</v>
       </c>
       <c r="T20" t="n">
-        <v>1749.253343642253</v>
+        <v>1598.086150267106</v>
       </c>
       <c r="U20" t="n">
-        <v>1749.253343642253</v>
+        <v>1598.086150267106</v>
       </c>
       <c r="V20" t="n">
-        <v>1749.253343642253</v>
+        <v>1240.596735393355</v>
       </c>
       <c r="W20" t="n">
-        <v>1749.253343642253</v>
+        <v>844.2053856937023</v>
       </c>
       <c r="X20" t="n">
-        <v>1749.253343642253</v>
+        <v>844.2053856937023</v>
       </c>
       <c r="Y20" t="n">
-        <v>1343.916073597144</v>
+        <v>438.8681156485927</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>593.4367873432375</v>
+        <v>593.4367873432373</v>
       </c>
       <c r="C21" t="n">
-        <v>475.9308838607423</v>
+        <v>475.930883860742</v>
       </c>
       <c r="D21" t="n">
-        <v>372.0909253760273</v>
+        <v>372.0909253760271</v>
       </c>
       <c r="E21" t="n">
-        <v>267.3889916489645</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F21" t="n">
-        <v>173.7431613318687</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G21" t="n">
         <v>80.62417733004328</v>
@@ -5831,52 +5831,52 @@
         <v>75.26691519968659</v>
       </c>
       <c r="J21" t="n">
-        <v>148.7086316845724</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K21" t="n">
-        <v>274.4772572558124</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L21" t="n">
-        <v>451.1161080864614</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M21" t="n">
-        <v>660.3908065674765</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N21" t="n">
-        <v>877.5457883997927</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O21" t="n">
-        <v>1072.589455387279</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P21" t="n">
-        <v>1225.987570233632</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q21" t="n">
         <v>1674.905125453736</v>
       </c>
       <c r="R21" t="n">
-        <v>1813.808303919614</v>
+        <v>1813.808303919613</v>
       </c>
       <c r="S21" t="n">
-        <v>1749.847329510331</v>
+        <v>1749.84732951033</v>
       </c>
       <c r="T21" t="n">
-        <v>1611.735244555135</v>
+        <v>1611.735244555134</v>
       </c>
       <c r="U21" t="n">
         <v>1427.028547670861</v>
       </c>
       <c r="V21" t="n">
-        <v>1222.055408810128</v>
+        <v>1222.055408810127</v>
       </c>
       <c r="W21" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X21" t="n">
-        <v>862.0566854100078</v>
+        <v>862.0566854100076</v>
       </c>
       <c r="Y21" t="n">
-        <v>722.3637967633002</v>
+        <v>722.3637967633</v>
       </c>
     </row>
     <row r="22">
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>199.5929389516216</v>
+        <v>66.23841245210218</v>
       </c>
       <c r="C22" t="n">
-        <v>199.5929389516216</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="D22" t="n">
         <v>36.27616607839228</v>
@@ -5910,16 +5910,16 @@
         <v>36.27616607839228</v>
       </c>
       <c r="J22" t="n">
-        <v>148.0721041840598</v>
+        <v>70.15038753583897</v>
       </c>
       <c r="K22" t="n">
-        <v>259.371361457994</v>
+        <v>138.6345353799611</v>
       </c>
       <c r="L22" t="n">
-        <v>708.2889166780984</v>
+        <v>356.3700675499418</v>
       </c>
       <c r="M22" t="n">
-        <v>1157.206471898203</v>
+        <v>805.2876227700463</v>
       </c>
       <c r="N22" t="n">
         <v>1254.205177990151</v>
@@ -5934,28 +5934,28 @@
         <v>1813.808303919614</v>
       </c>
       <c r="R22" t="n">
-        <v>1813.808303919614</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="S22" t="n">
-        <v>1813.808303919614</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="T22" t="n">
-        <v>1573.817469751211</v>
+        <v>1562.016618765574</v>
       </c>
       <c r="U22" t="n">
-        <v>1293.675768233716</v>
+        <v>1281.874917248079</v>
       </c>
       <c r="V22" t="n">
-        <v>1011.964300841744</v>
+        <v>1000.163449856108</v>
       </c>
       <c r="W22" t="n">
-        <v>737.1118970142575</v>
+        <v>725.3110460286207</v>
       </c>
       <c r="X22" t="n">
-        <v>494.5480004600626</v>
+        <v>482.7471494744258</v>
       </c>
       <c r="Y22" t="n">
-        <v>268.2052321498046</v>
+        <v>256.4043811641678</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>321.7734360074543</v>
+        <v>723.9890664751113</v>
       </c>
       <c r="C23" t="n">
-        <v>321.7734360074543</v>
+        <v>723.9890664751113</v>
       </c>
       <c r="D23" t="n">
-        <v>321.7734360074543</v>
+        <v>723.9890664751113</v>
       </c>
       <c r="E23" t="n">
-        <v>321.7734360074543</v>
+        <v>723.9890664751113</v>
       </c>
       <c r="F23" t="n">
-        <v>321.7734360074543</v>
+        <v>723.9890664751113</v>
       </c>
       <c r="G23" t="n">
         <v>321.7734360074543</v>
@@ -5986,16 +5986,16 @@
         <v>45.65165486665614</v>
       </c>
       <c r="I23" t="n">
-        <v>91.68375548799713</v>
+        <v>91.68375548799668</v>
       </c>
       <c r="J23" t="n">
-        <v>239.1951771864199</v>
+        <v>239.1951771864194</v>
       </c>
       <c r="K23" t="n">
-        <v>468.5215691359911</v>
+        <v>468.5215691359908</v>
       </c>
       <c r="L23" t="n">
-        <v>759.0177730780659</v>
+        <v>759.0177730780657</v>
       </c>
       <c r="M23" t="n">
         <v>1087.39705617444</v>
@@ -6007,7 +6007,7 @@
         <v>1735.477236812737</v>
       </c>
       <c r="P23" t="n">
-        <v>1997.553288161953</v>
+        <v>1997.553288161954</v>
       </c>
       <c r="Q23" t="n">
         <v>2186.533416978295</v>
@@ -6016,25 +6016,25 @@
         <v>2282.582743332807</v>
       </c>
       <c r="S23" t="n">
-        <v>2226.603154604653</v>
+        <v>2282.582743332807</v>
       </c>
       <c r="T23" t="n">
-        <v>2014.972906979306</v>
+        <v>2070.95249570746</v>
       </c>
       <c r="U23" t="n">
-        <v>1756.78787213115</v>
+        <v>1883.207101093625</v>
       </c>
       <c r="V23" t="n">
-        <v>1399.298457257399</v>
+        <v>1525.717686219874</v>
       </c>
       <c r="W23" t="n">
-        <v>1002.907107557746</v>
+        <v>1129.326336520221</v>
       </c>
       <c r="X23" t="n">
-        <v>591.1871087254935</v>
+        <v>1129.326336520221</v>
       </c>
       <c r="Y23" t="n">
-        <v>321.7734360074543</v>
+        <v>723.9890664751113</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>45.65165486665614</v>
       </c>
       <c r="I24" t="n">
-        <v>67.97953605634441</v>
+        <v>91.43684190075626</v>
       </c>
       <c r="J24" t="n">
-        <v>313.194841541517</v>
+        <v>176.2357339794196</v>
       </c>
       <c r="K24" t="n">
-        <v>470.8298136905623</v>
+        <v>333.8707061284649</v>
       </c>
       <c r="L24" t="n">
-        <v>690.3169000464917</v>
+        <v>553.3577924843943</v>
       </c>
       <c r="M24" t="n">
-        <v>949.5934683648049</v>
+        <v>812.6343608027075</v>
       </c>
       <c r="N24" t="n">
-        <v>1218.073720743805</v>
+        <v>1081.114613181708</v>
       </c>
       <c r="O24" t="n">
-        <v>1460.069983076002</v>
+        <v>1323.110875513905</v>
       </c>
       <c r="P24" t="n">
-        <v>1651.151695100411</v>
+        <v>1514.192587538314</v>
       </c>
       <c r="Q24" t="n">
-        <v>1770.772889828331</v>
+        <v>1665.317389543425</v>
       </c>
       <c r="R24" t="n">
         <v>1816.473060123147</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>547.5441629056313</v>
+        <v>389.7977474273648</v>
       </c>
       <c r="C25" t="n">
-        <v>375.5715997845473</v>
+        <v>217.8251843062808</v>
       </c>
       <c r="D25" t="n">
-        <v>375.5715997845473</v>
+        <v>217.8251843062808</v>
       </c>
       <c r="E25" t="n">
-        <v>209.3633939374008</v>
+        <v>217.8251843062808</v>
       </c>
       <c r="F25" t="n">
-        <v>209.3633939374008</v>
+        <v>45.96341008084119</v>
       </c>
       <c r="G25" t="n">
-        <v>209.3633939374008</v>
+        <v>45.65165486665614</v>
       </c>
       <c r="H25" t="n">
-        <v>116.775996475728</v>
+        <v>45.65165486665614</v>
       </c>
       <c r="I25" t="n">
         <v>45.65165486665614</v>
       </c>
       <c r="J25" t="n">
-        <v>169.1445260968437</v>
+        <v>91.22280944862288</v>
       </c>
       <c r="K25" t="n">
-        <v>475.688268893514</v>
+        <v>178.9286115722058</v>
       </c>
       <c r="L25" t="n">
-        <v>592.7811916874998</v>
+        <v>592.7811916875003</v>
       </c>
       <c r="M25" t="n">
         <v>1130.304212587154</v>
@@ -6162,7 +6162,7 @@
         <v>1650.653377239774</v>
       </c>
       <c r="O25" t="n">
-        <v>2138.033671363506</v>
+        <v>2138.033671363507</v>
       </c>
       <c r="P25" t="n">
         <v>2228.784551690397</v>
@@ -6171,28 +6171,28 @@
         <v>2282.582743332807</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.582743332807</v>
+        <v>2278.371924764275</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.582743332807</v>
+        <v>2124.83632785454</v>
       </c>
       <c r="T25" t="n">
-        <v>2043.313161739422</v>
+        <v>1885.566746261156</v>
       </c>
       <c r="U25" t="n">
-        <v>1763.180667701608</v>
+        <v>1605.434252223341</v>
       </c>
       <c r="V25" t="n">
-        <v>1481.469200309637</v>
+        <v>1323.72278483137</v>
       </c>
       <c r="W25" t="n">
-        <v>1206.61679648215</v>
+        <v>1048.870381003883</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0528999279549</v>
+        <v>806.3064844496884</v>
       </c>
       <c r="Y25" t="n">
-        <v>737.7101316176969</v>
+        <v>579.9637161394304</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>979.4500929658689</v>
+        <v>1395.03479148087</v>
       </c>
       <c r="C26" t="n">
-        <v>552.549362979169</v>
+        <v>1320.045397344398</v>
       </c>
       <c r="D26" t="n">
-        <v>552.549362979169</v>
+        <v>896.7527765293984</v>
       </c>
       <c r="E26" t="n">
-        <v>552.549362979169</v>
+        <v>470.7758366772559</v>
       </c>
       <c r="F26" t="n">
-        <v>127.4251811685692</v>
+        <v>45.65165486665613</v>
       </c>
       <c r="G26" t="n">
         <v>45.65165486665613</v>
@@ -6256,22 +6256,22 @@
         <v>2226.603154604652</v>
       </c>
       <c r="T26" t="n">
-        <v>2014.972906979306</v>
+        <v>2226.603154604652</v>
       </c>
       <c r="U26" t="n">
-        <v>1756.787872131149</v>
+        <v>2226.603154604652</v>
       </c>
       <c r="V26" t="n">
-        <v>1399.298457257399</v>
+        <v>2226.603154604652</v>
       </c>
       <c r="W26" t="n">
-        <v>1399.298457257399</v>
+        <v>2226.603154604652</v>
       </c>
       <c r="X26" t="n">
-        <v>1399.298457257399</v>
+        <v>1814.8831557724</v>
       </c>
       <c r="Y26" t="n">
-        <v>1399.298457257399</v>
+        <v>1814.8831557724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>45.65165486665613</v>
       </c>
       <c r="I27" t="n">
-        <v>67.9795360563444</v>
+        <v>91.43684190075624</v>
       </c>
       <c r="J27" t="n">
-        <v>313.194841541517</v>
+        <v>207.7393412566112</v>
       </c>
       <c r="K27" t="n">
-        <v>470.8298136905623</v>
+        <v>365.3743134056565</v>
       </c>
       <c r="L27" t="n">
-        <v>690.3169000464917</v>
+        <v>584.8613997615859</v>
       </c>
       <c r="M27" t="n">
-        <v>949.5934683648049</v>
+        <v>844.1379680798991</v>
       </c>
       <c r="N27" t="n">
-        <v>1218.073720743805</v>
+        <v>1112.618220458899</v>
       </c>
       <c r="O27" t="n">
-        <v>1460.069983076002</v>
+        <v>1354.614482791097</v>
       </c>
       <c r="P27" t="n">
-        <v>1651.151695100411</v>
+        <v>1545.696194815505</v>
       </c>
       <c r="Q27" t="n">
-        <v>1770.772889828331</v>
+        <v>1665.317389543425</v>
       </c>
       <c r="R27" t="n">
         <v>1816.473060123147</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>927.4507021125044</v>
+        <v>554.7904634511206</v>
       </c>
       <c r="C28" t="n">
-        <v>755.4781389914203</v>
+        <v>382.8179003300365</v>
       </c>
       <c r="D28" t="n">
-        <v>755.4781389914203</v>
+        <v>382.8179003300365</v>
       </c>
       <c r="E28" t="n">
-        <v>589.2699331442739</v>
+        <v>382.8179003300365</v>
       </c>
       <c r="F28" t="n">
-        <v>417.4081589188343</v>
+        <v>210.956126104597</v>
       </c>
       <c r="G28" t="n">
-        <v>252.1036876808934</v>
+        <v>45.65165486665613</v>
       </c>
       <c r="H28" t="n">
-        <v>116.775996475728</v>
+        <v>45.65165486665613</v>
       </c>
       <c r="I28" t="n">
         <v>45.65165486665613</v>
       </c>
       <c r="J28" t="n">
-        <v>169.1445260968437</v>
+        <v>91.22280944862285</v>
       </c>
       <c r="K28" t="n">
-        <v>256.8503282204266</v>
+        <v>200.0786511918627</v>
       </c>
       <c r="L28" t="n">
-        <v>750.3321446055775</v>
+        <v>693.5604675770136</v>
       </c>
       <c r="M28" t="n">
-        <v>1287.855165505231</v>
+        <v>817.5480080138457</v>
       </c>
       <c r="N28" t="n">
-        <v>1808.204330157851</v>
+        <v>1337.897172666466</v>
       </c>
       <c r="O28" t="n">
-        <v>1917.88229997838</v>
+        <v>1825.277466790198</v>
       </c>
       <c r="P28" t="n">
-        <v>2077.411054312497</v>
+        <v>2228.784551690396</v>
       </c>
       <c r="Q28" t="n">
         <v>2282.582743332806</v>
       </c>
       <c r="R28" t="n">
-        <v>2278.371924764274</v>
+        <v>2282.582743332806</v>
       </c>
       <c r="S28" t="n">
-        <v>2124.836327854539</v>
+        <v>2282.582743332806</v>
       </c>
       <c r="T28" t="n">
-        <v>1885.566746261155</v>
+        <v>2050.559462284911</v>
       </c>
       <c r="U28" t="n">
-        <v>1605.434252223341</v>
+        <v>1770.426968247097</v>
       </c>
       <c r="V28" t="n">
-        <v>1323.722784831369</v>
+        <v>1488.715500855126</v>
       </c>
       <c r="W28" t="n">
-        <v>1048.870381003882</v>
+        <v>1213.863097027639</v>
       </c>
       <c r="X28" t="n">
-        <v>927.4507021125044</v>
+        <v>971.2992004734442</v>
       </c>
       <c r="Y28" t="n">
-        <v>927.4507021125044</v>
+        <v>744.9564321631863</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1401.417520268013</v>
+        <v>1149.113248285711</v>
       </c>
       <c r="C29" t="n">
-        <v>974.5167902813134</v>
+        <v>1149.113248285711</v>
       </c>
       <c r="D29" t="n">
-        <v>896.7527765293984</v>
+        <v>1149.113248285711</v>
       </c>
       <c r="E29" t="n">
-        <v>470.7758366772559</v>
+        <v>1149.113248285711</v>
       </c>
       <c r="F29" t="n">
-        <v>45.65165486665614</v>
+        <v>723.9890664751113</v>
       </c>
       <c r="G29" t="n">
-        <v>45.65165486665614</v>
+        <v>321.7734360074543</v>
       </c>
       <c r="H29" t="n">
         <v>45.65165486665614</v>
       </c>
       <c r="I29" t="n">
-        <v>91.68375548799705</v>
+        <v>91.68375548799702</v>
       </c>
       <c r="J29" t="n">
         <v>239.19517718642</v>
@@ -6469,16 +6469,16 @@
         <v>468.5215691359912</v>
       </c>
       <c r="L29" t="n">
-        <v>759.0177730780667</v>
+        <v>759.0177730780661</v>
       </c>
       <c r="M29" t="n">
-        <v>1087.397056174441</v>
+        <v>1087.39705617444</v>
       </c>
       <c r="N29" t="n">
-        <v>1421.839603242846</v>
+        <v>1421.839603242845</v>
       </c>
       <c r="O29" t="n">
-        <v>1735.477236812737</v>
+        <v>1735.477236812738</v>
       </c>
       <c r="P29" t="n">
         <v>1997.553288161954</v>
@@ -6490,25 +6490,25 @@
         <v>2282.582743332807</v>
       </c>
       <c r="S29" t="n">
-        <v>2226.603154604653</v>
+        <v>2282.582743332807</v>
       </c>
       <c r="T29" t="n">
-        <v>2226.603154604653</v>
+        <v>2070.95249570746</v>
       </c>
       <c r="U29" t="n">
-        <v>2226.603154604653</v>
+        <v>1812.767460859304</v>
       </c>
       <c r="V29" t="n">
-        <v>2226.603154604653</v>
+        <v>1455.278045985554</v>
       </c>
       <c r="W29" t="n">
-        <v>2226.603154604653</v>
+        <v>1149.113248285711</v>
       </c>
       <c r="X29" t="n">
-        <v>2226.603154604653</v>
+        <v>1149.113248285711</v>
       </c>
       <c r="Y29" t="n">
-        <v>1821.265884559543</v>
+        <v>1149.113248285711</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>45.65165486665614</v>
       </c>
       <c r="I30" t="n">
-        <v>67.97953605634441</v>
+        <v>91.43684190075626</v>
       </c>
       <c r="J30" t="n">
-        <v>152.7784281350078</v>
+        <v>176.2357339794196</v>
       </c>
       <c r="K30" t="n">
-        <v>310.4134002840531</v>
+        <v>333.8707061284649</v>
       </c>
       <c r="L30" t="n">
-        <v>529.9004866399824</v>
+        <v>553.3577924843943</v>
       </c>
       <c r="M30" t="n">
-        <v>789.1770549582957</v>
+        <v>812.6343608027075</v>
       </c>
       <c r="N30" t="n">
-        <v>1057.657307337296</v>
+        <v>1081.114613181708</v>
       </c>
       <c r="O30" t="n">
-        <v>1299.653569669493</v>
+        <v>1354.614482791097</v>
       </c>
       <c r="P30" t="n">
-        <v>1651.151695100411</v>
+        <v>1545.696194815505</v>
       </c>
       <c r="Q30" t="n">
-        <v>1770.772889828331</v>
+        <v>1665.317389543425</v>
       </c>
       <c r="R30" t="n">
         <v>1816.473060123147</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>783.5780095551286</v>
+        <v>810.5173030182208</v>
       </c>
       <c r="C31" t="n">
-        <v>611.6054464340446</v>
+        <v>810.5173030182208</v>
       </c>
       <c r="D31" t="n">
-        <v>448.2886735608153</v>
+        <v>647.2005301449915</v>
       </c>
       <c r="E31" t="n">
-        <v>282.0804677136688</v>
+        <v>589.269933144274</v>
       </c>
       <c r="F31" t="n">
-        <v>282.0804677136688</v>
+        <v>417.4081589188344</v>
       </c>
       <c r="G31" t="n">
-        <v>116.775996475728</v>
+        <v>252.1036876808935</v>
       </c>
       <c r="H31" t="n">
         <v>116.775996475728</v>
@@ -6621,22 +6621,22 @@
         <v>45.65165486665614</v>
       </c>
       <c r="J31" t="n">
-        <v>169.1445260968437</v>
+        <v>91.22280944862288</v>
       </c>
       <c r="K31" t="n">
-        <v>504.1329373344486</v>
+        <v>178.9286115722058</v>
       </c>
       <c r="L31" t="n">
-        <v>621.2258601284345</v>
+        <v>672.4104279573567</v>
       </c>
       <c r="M31" t="n">
-        <v>1158.748881028088</v>
+        <v>1209.93344885701</v>
       </c>
       <c r="N31" t="n">
-        <v>1281.065122838828</v>
+        <v>1332.24969066775</v>
       </c>
       <c r="O31" t="n">
-        <v>1768.445416962561</v>
+        <v>1673.9039694123</v>
       </c>
       <c r="P31" t="n">
         <v>2077.411054312498</v>
@@ -6645,28 +6645,28 @@
         <v>2282.582743332807</v>
       </c>
       <c r="R31" t="n">
-        <v>2278.371924764274</v>
+        <v>2282.582743332807</v>
       </c>
       <c r="S31" t="n">
-        <v>2124.83632785454</v>
+        <v>2129.047146423073</v>
       </c>
       <c r="T31" t="n">
-        <v>1885.566746261155</v>
+        <v>1889.777564829688</v>
       </c>
       <c r="U31" t="n">
-        <v>1885.566746261155</v>
+        <v>1609.645070791874</v>
       </c>
       <c r="V31" t="n">
-        <v>1717.503046959134</v>
+        <v>1327.933603399903</v>
       </c>
       <c r="W31" t="n">
-        <v>1442.650643131647</v>
+        <v>1053.081199572416</v>
       </c>
       <c r="X31" t="n">
-        <v>1200.086746577452</v>
+        <v>810.5173030182208</v>
       </c>
       <c r="Y31" t="n">
-        <v>973.7439782671943</v>
+        <v>810.5173030182208</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>235.8167568623572</v>
+        <v>1722.261027812055</v>
       </c>
       <c r="C32" t="n">
-        <v>235.8167568623572</v>
+        <v>1722.261027812055</v>
       </c>
       <c r="D32" t="n">
-        <v>235.8167568623572</v>
+        <v>1298.968406997055</v>
       </c>
       <c r="E32" t="n">
-        <v>235.8167568623572</v>
+        <v>872.9914671449129</v>
       </c>
       <c r="F32" t="n">
-        <v>235.8167568623572</v>
+        <v>447.8672853343131</v>
       </c>
       <c r="G32" t="n">
-        <v>235.8167568623572</v>
+        <v>45.65165486665613</v>
       </c>
       <c r="H32" t="n">
-        <v>45.65165486665614</v>
+        <v>45.65165486665613</v>
       </c>
       <c r="I32" t="n">
         <v>91.68375548799702</v>
       </c>
       <c r="J32" t="n">
-        <v>239.19517718642</v>
+        <v>239.1951771864199</v>
       </c>
       <c r="K32" t="n">
-        <v>468.5215691359912</v>
+        <v>468.5215691359911</v>
       </c>
       <c r="L32" t="n">
-        <v>759.0177730780661</v>
+        <v>759.0177730780663</v>
       </c>
       <c r="M32" t="n">
         <v>1087.39705617444</v>
@@ -6715,37 +6715,37 @@
         <v>1421.839603242845</v>
       </c>
       <c r="O32" t="n">
-        <v>1735.477236812738</v>
+        <v>1735.477236812737</v>
       </c>
       <c r="P32" t="n">
-        <v>1997.553288161954</v>
+        <v>1997.553288161953</v>
       </c>
       <c r="Q32" t="n">
-        <v>2186.533416978295</v>
+        <v>2186.533416978294</v>
       </c>
       <c r="R32" t="n">
-        <v>2282.582743332807</v>
+        <v>2282.582743332806</v>
       </c>
       <c r="S32" t="n">
-        <v>2226.603154604653</v>
+        <v>2226.603154604652</v>
       </c>
       <c r="T32" t="n">
-        <v>2226.603154604653</v>
+        <v>2226.603154604652</v>
       </c>
       <c r="U32" t="n">
-        <v>2226.603154604653</v>
+        <v>2226.603154604652</v>
       </c>
       <c r="V32" t="n">
-        <v>1869.113739730903</v>
+        <v>2226.603154604652</v>
       </c>
       <c r="W32" t="n">
-        <v>1472.72239003125</v>
+        <v>2133.981026644308</v>
       </c>
       <c r="X32" t="n">
-        <v>1061.002391198997</v>
+        <v>1722.261027812055</v>
       </c>
       <c r="Y32" t="n">
-        <v>655.6651211538873</v>
+        <v>1722.261027812055</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>88.05506378226599</v>
       </c>
       <c r="H33" t="n">
-        <v>45.65165486665614</v>
+        <v>45.65165486665613</v>
       </c>
       <c r="I33" t="n">
-        <v>67.97953605634441</v>
+        <v>91.43684190075624</v>
       </c>
       <c r="J33" t="n">
-        <v>313.194841541517</v>
+        <v>176.2357339794196</v>
       </c>
       <c r="K33" t="n">
-        <v>470.8298136905623</v>
+        <v>333.8707061284649</v>
       </c>
       <c r="L33" t="n">
-        <v>690.3169000464917</v>
+        <v>553.3577924843943</v>
       </c>
       <c r="M33" t="n">
-        <v>949.5934683648049</v>
+        <v>812.6343608027075</v>
       </c>
       <c r="N33" t="n">
-        <v>1218.073720743805</v>
+        <v>1081.114613181708</v>
       </c>
       <c r="O33" t="n">
-        <v>1460.069983076002</v>
+        <v>1323.110875513905</v>
       </c>
       <c r="P33" t="n">
-        <v>1651.151695100411</v>
+        <v>1514.192587538314</v>
       </c>
       <c r="Q33" t="n">
-        <v>1770.772889828331</v>
+        <v>1665.317389543425</v>
       </c>
       <c r="R33" t="n">
         <v>1816.473060123147</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>856.3263605034326</v>
+        <v>554.7904634511206</v>
       </c>
       <c r="C34" t="n">
-        <v>684.3537973823486</v>
+        <v>382.8179003300365</v>
       </c>
       <c r="D34" t="n">
-        <v>684.3537973823486</v>
+        <v>382.8179003300365</v>
       </c>
       <c r="E34" t="n">
-        <v>518.1455915352021</v>
+        <v>382.8179003300365</v>
       </c>
       <c r="F34" t="n">
-        <v>346.2838173097625</v>
+        <v>210.956126104597</v>
       </c>
       <c r="G34" t="n">
-        <v>180.9793460718216</v>
+        <v>45.65165486665613</v>
       </c>
       <c r="H34" t="n">
-        <v>45.65165486665614</v>
+        <v>45.65165486665613</v>
       </c>
       <c r="I34" t="n">
-        <v>45.65165486665614</v>
+        <v>45.65165486665613</v>
       </c>
       <c r="J34" t="n">
         <v>169.1445260968437</v>
       </c>
       <c r="K34" t="n">
-        <v>256.8503282204266</v>
+        <v>504.1329373344486</v>
       </c>
       <c r="L34" t="n">
-        <v>750.3321446055775</v>
+        <v>940.2198930409946</v>
       </c>
       <c r="M34" t="n">
-        <v>1130.304212587154</v>
+        <v>1064.207433477827</v>
       </c>
       <c r="N34" t="n">
-        <v>1650.653377239774</v>
+        <v>1186.523675288567</v>
       </c>
       <c r="O34" t="n">
-        <v>2138.033671363507</v>
+        <v>1673.903969412299</v>
       </c>
       <c r="P34" t="n">
-        <v>2228.784551690397</v>
+        <v>2077.411054312497</v>
       </c>
       <c r="Q34" t="n">
-        <v>2282.582743332807</v>
+        <v>2282.582743332806</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.582743332807</v>
+        <v>2282.582743332806</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.582743332807</v>
+        <v>2282.582743332806</v>
       </c>
       <c r="T34" t="n">
-        <v>2282.582743332807</v>
+        <v>2050.559462284911</v>
       </c>
       <c r="U34" t="n">
-        <v>2071.962865299409</v>
+        <v>1770.426968247097</v>
       </c>
       <c r="V34" t="n">
-        <v>1790.251397907438</v>
+        <v>1488.715500855126</v>
       </c>
       <c r="W34" t="n">
-        <v>1515.398994079951</v>
+        <v>1213.863097027639</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.835097525756</v>
+        <v>971.2992004734442</v>
       </c>
       <c r="Y34" t="n">
-        <v>1046.492329215498</v>
+        <v>744.9564321631863</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2282.582743332806</v>
+        <v>745.066056822454</v>
       </c>
       <c r="C35" t="n">
-        <v>1855.682013346106</v>
+        <v>745.066056822454</v>
       </c>
       <c r="D35" t="n">
-        <v>1432.389392531107</v>
+        <v>321.7734360074543</v>
       </c>
       <c r="E35" t="n">
-        <v>1006.412452678964</v>
+        <v>321.7734360074543</v>
       </c>
       <c r="F35" t="n">
-        <v>581.2882708683645</v>
+        <v>321.7734360074543</v>
       </c>
       <c r="G35" t="n">
         <v>321.7734360074543</v>
       </c>
       <c r="H35" t="n">
-        <v>45.65165486665613</v>
+        <v>45.65165486665614</v>
       </c>
       <c r="I35" t="n">
         <v>91.68375548799702</v>
       </c>
       <c r="J35" t="n">
-        <v>239.1951771864199</v>
+        <v>239.19517718642</v>
       </c>
       <c r="K35" t="n">
-        <v>468.5215691359911</v>
+        <v>468.5215691359912</v>
       </c>
       <c r="L35" t="n">
-        <v>759.0177730780663</v>
+        <v>759.0177730780661</v>
       </c>
       <c r="M35" t="n">
-        <v>1087.397056174441</v>
+        <v>1087.39705617444</v>
       </c>
       <c r="N35" t="n">
-        <v>1421.839603242846</v>
+        <v>1421.839603242845</v>
       </c>
       <c r="O35" t="n">
-        <v>1735.477236812737</v>
+        <v>1735.477236812738</v>
       </c>
       <c r="P35" t="n">
         <v>1997.553288161954</v>
@@ -6961,28 +6961,28 @@
         <v>2186.533416978295</v>
       </c>
       <c r="R35" t="n">
-        <v>2282.582743332806</v>
+        <v>2282.582743332807</v>
       </c>
       <c r="S35" t="n">
-        <v>2282.582743332806</v>
+        <v>2226.603154604653</v>
       </c>
       <c r="T35" t="n">
-        <v>2282.582743332806</v>
+        <v>2014.972906979307</v>
       </c>
       <c r="U35" t="n">
-        <v>2282.582743332806</v>
+        <v>1756.78787213115</v>
       </c>
       <c r="V35" t="n">
-        <v>2282.582743332806</v>
+        <v>1756.78787213115</v>
       </c>
       <c r="W35" t="n">
-        <v>2282.582743332806</v>
+        <v>1576.634419946237</v>
       </c>
       <c r="X35" t="n">
-        <v>2282.582743332806</v>
+        <v>1164.914421113984</v>
       </c>
       <c r="Y35" t="n">
-        <v>2282.582743332806</v>
+        <v>1164.914421113984</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>88.05506378226599</v>
       </c>
       <c r="H36" t="n">
-        <v>45.65165486665613</v>
+        <v>45.65165486665614</v>
       </c>
       <c r="I36" t="n">
-        <v>91.43684190075624</v>
+        <v>91.43684190075626</v>
       </c>
       <c r="J36" t="n">
-        <v>176.2357339794196</v>
+        <v>313.194841541517</v>
       </c>
       <c r="K36" t="n">
-        <v>333.8707061284649</v>
+        <v>470.8298136905623</v>
       </c>
       <c r="L36" t="n">
-        <v>553.3577924843943</v>
+        <v>690.3169000464917</v>
       </c>
       <c r="M36" t="n">
-        <v>812.6343608027075</v>
+        <v>949.5934683648049</v>
       </c>
       <c r="N36" t="n">
-        <v>1081.114613181708</v>
+        <v>1218.073720743805</v>
       </c>
       <c r="O36" t="n">
-        <v>1323.110875513905</v>
+        <v>1460.069983076002</v>
       </c>
       <c r="P36" t="n">
-        <v>1514.192587538314</v>
+        <v>1651.151695100411</v>
       </c>
       <c r="Q36" t="n">
-        <v>1665.317389543425</v>
+        <v>1770.772889828331</v>
       </c>
       <c r="R36" t="n">
         <v>1816.473060123147</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>674.1410600337106</v>
+        <v>540.4811048249728</v>
       </c>
       <c r="C37" t="n">
-        <v>674.1410600337106</v>
+        <v>540.4811048249728</v>
       </c>
       <c r="D37" t="n">
-        <v>674.1410600337106</v>
+        <v>377.1643319517435</v>
       </c>
       <c r="E37" t="n">
-        <v>589.2699331442739</v>
+        <v>210.956126104597</v>
       </c>
       <c r="F37" t="n">
-        <v>417.4081589188343</v>
+        <v>210.956126104597</v>
       </c>
       <c r="G37" t="n">
-        <v>252.1036876808934</v>
+        <v>45.65165486665614</v>
       </c>
       <c r="H37" t="n">
-        <v>116.775996475728</v>
+        <v>45.65165486665614</v>
       </c>
       <c r="I37" t="n">
-        <v>45.65165486665613</v>
+        <v>45.65165486665614</v>
       </c>
       <c r="J37" t="n">
         <v>169.1445260968437</v>
@@ -7101,46 +7101,46 @@
         <v>504.1329373344486</v>
       </c>
       <c r="L37" t="n">
-        <v>997.6147537195995</v>
+        <v>940.2198930409955</v>
       </c>
       <c r="M37" t="n">
-        <v>1441.90975778103</v>
+        <v>1064.207433477828</v>
       </c>
       <c r="N37" t="n">
-        <v>1564.22599959177</v>
+        <v>1186.523675288568</v>
       </c>
       <c r="O37" t="n">
-        <v>1673.903969412299</v>
+        <v>1673.9039694123</v>
       </c>
       <c r="P37" t="n">
-        <v>2077.411054312497</v>
+        <v>2077.411054312498</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.582743332806</v>
+        <v>2282.582743332807</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.582743332806</v>
+        <v>2278.371924764275</v>
       </c>
       <c r="S37" t="n">
-        <v>2129.047146423072</v>
+        <v>2124.83632785454</v>
       </c>
       <c r="T37" t="n">
-        <v>1889.777564829687</v>
+        <v>1885.566746261156</v>
       </c>
       <c r="U37" t="n">
-        <v>1889.777564829687</v>
+        <v>1605.434252223341</v>
       </c>
       <c r="V37" t="n">
-        <v>1608.066097437716</v>
+        <v>1323.72278483137</v>
       </c>
       <c r="W37" t="n">
-        <v>1333.213693610229</v>
+        <v>1048.870381003883</v>
       </c>
       <c r="X37" t="n">
-        <v>1090.649797056034</v>
+        <v>806.3064844496884</v>
       </c>
       <c r="Y37" t="n">
-        <v>864.3070287457763</v>
+        <v>579.9637161394304</v>
       </c>
     </row>
     <row r="38">
@@ -7171,25 +7171,25 @@
         <v>45.65165486665614</v>
       </c>
       <c r="I38" t="n">
-        <v>91.68375548799713</v>
+        <v>91.68375548799759</v>
       </c>
       <c r="J38" t="n">
-        <v>239.1951771864201</v>
+        <v>239.1951771864208</v>
       </c>
       <c r="K38" t="n">
-        <v>468.5215691359914</v>
+        <v>468.521569135992</v>
       </c>
       <c r="L38" t="n">
-        <v>759.0177730780665</v>
+        <v>759.0177730780666</v>
       </c>
       <c r="M38" t="n">
         <v>1087.397056174441</v>
       </c>
       <c r="N38" t="n">
-        <v>1421.839603242845</v>
+        <v>1421.839603242846</v>
       </c>
       <c r="O38" t="n">
-        <v>1735.477236812737</v>
+        <v>1735.477236812738</v>
       </c>
       <c r="P38" t="n">
         <v>1997.553288161954</v>
@@ -7216,10 +7216,10 @@
         <v>2226.603154604653</v>
       </c>
       <c r="X38" t="n">
-        <v>2226.603154604653</v>
+        <v>1814.883155772401</v>
       </c>
       <c r="Y38" t="n">
-        <v>2166.794491622628</v>
+        <v>1814.883155772401</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>45.65165486665614</v>
       </c>
       <c r="I39" t="n">
-        <v>67.97953605634441</v>
+        <v>91.43684190075626</v>
       </c>
       <c r="J39" t="n">
-        <v>152.7784281350078</v>
+        <v>176.2357339794196</v>
       </c>
       <c r="K39" t="n">
-        <v>310.4134002840531</v>
+        <v>333.8707061284649</v>
       </c>
       <c r="L39" t="n">
-        <v>529.9004866399824</v>
+        <v>553.3577924843943</v>
       </c>
       <c r="M39" t="n">
-        <v>844.1379680798991</v>
+        <v>812.6343608027075</v>
       </c>
       <c r="N39" t="n">
-        <v>1112.618220458899</v>
+        <v>1081.114613181708</v>
       </c>
       <c r="O39" t="n">
-        <v>1354.614482791097</v>
+        <v>1323.110875513905</v>
       </c>
       <c r="P39" t="n">
-        <v>1545.696194815505</v>
+        <v>1514.192587538314</v>
       </c>
       <c r="Q39" t="n">
         <v>1665.317389543425</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>451.9545435743968</v>
+        <v>847.6705702555779</v>
       </c>
       <c r="C40" t="n">
-        <v>451.9545435743968</v>
+        <v>847.6705702555779</v>
       </c>
       <c r="D40" t="n">
-        <v>288.6377707011675</v>
+        <v>684.3537973823486</v>
       </c>
       <c r="E40" t="n">
-        <v>288.6377707011675</v>
+        <v>518.1455915352021</v>
       </c>
       <c r="F40" t="n">
-        <v>116.775996475728</v>
+        <v>346.2838173097625</v>
       </c>
       <c r="G40" t="n">
-        <v>116.775996475728</v>
+        <v>180.9793460718216</v>
       </c>
       <c r="H40" t="n">
-        <v>116.775996475728</v>
+        <v>45.65165486665614</v>
       </c>
       <c r="I40" t="n">
         <v>45.65165486665614</v>
       </c>
       <c r="J40" t="n">
-        <v>91.22280944862287</v>
+        <v>169.1445260968437</v>
       </c>
       <c r="K40" t="n">
-        <v>178.9286115722057</v>
+        <v>504.1329373344486</v>
       </c>
       <c r="L40" t="n">
-        <v>592.7811916874998</v>
+        <v>997.6147537195995</v>
       </c>
       <c r="M40" t="n">
-        <v>1130.304212587154</v>
+        <v>1121.602294156432</v>
       </c>
       <c r="N40" t="n">
-        <v>1650.653377239774</v>
+        <v>1243.918535967172</v>
       </c>
       <c r="O40" t="n">
-        <v>2138.033671363506</v>
+        <v>1673.9039694123</v>
       </c>
       <c r="P40" t="n">
-        <v>2228.784551690397</v>
+        <v>2077.411054312498</v>
       </c>
       <c r="Q40" t="n">
         <v>2282.582743332807</v>
       </c>
       <c r="R40" t="n">
-        <v>2278.371924764274</v>
+        <v>2282.582743332807</v>
       </c>
       <c r="S40" t="n">
-        <v>2124.83632785454</v>
+        <v>2282.582743332807</v>
       </c>
       <c r="T40" t="n">
-        <v>1885.566746261155</v>
+        <v>2043.313161739423</v>
       </c>
       <c r="U40" t="n">
-        <v>1605.434252223341</v>
+        <v>1763.180667701608</v>
       </c>
       <c r="V40" t="n">
-        <v>1323.72278483137</v>
+        <v>1481.469200309637</v>
       </c>
       <c r="W40" t="n">
-        <v>1048.870381003883</v>
+        <v>1280.400435521838</v>
       </c>
       <c r="X40" t="n">
-        <v>806.3064844496879</v>
+        <v>1037.836538967643</v>
       </c>
       <c r="Y40" t="n">
-        <v>642.1205122864625</v>
+        <v>1037.836538967643</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1045.677110163914</v>
+        <v>1576.013978272411</v>
       </c>
       <c r="C41" t="n">
-        <v>1045.677110163914</v>
+        <v>1149.113248285711</v>
       </c>
       <c r="D41" t="n">
-        <v>622.3844893489147</v>
+        <v>1149.113248285711</v>
       </c>
       <c r="E41" t="n">
-        <v>196.4075494967723</v>
+        <v>1149.113248285711</v>
       </c>
       <c r="F41" t="n">
-        <v>196.4075494967723</v>
+        <v>723.9890664751113</v>
       </c>
       <c r="G41" t="n">
-        <v>45.65165486665614</v>
+        <v>321.7734360074543</v>
       </c>
       <c r="H41" t="n">
         <v>45.65165486665614</v>
       </c>
       <c r="I41" t="n">
-        <v>91.68375548799713</v>
+        <v>91.68375548799668</v>
       </c>
       <c r="J41" t="n">
-        <v>239.1951771864199</v>
+        <v>239.1951771864194</v>
       </c>
       <c r="K41" t="n">
-        <v>468.5215691359911</v>
+        <v>468.5215691359908</v>
       </c>
       <c r="L41" t="n">
-        <v>759.0177730780661</v>
+        <v>759.0177730780657</v>
       </c>
       <c r="M41" t="n">
         <v>1087.39705617444</v>
@@ -7429,7 +7429,7 @@
         <v>1735.477236812737</v>
       </c>
       <c r="P41" t="n">
-        <v>1997.553288161953</v>
+        <v>1997.553288161954</v>
       </c>
       <c r="Q41" t="n">
         <v>2186.533416978295</v>
@@ -7453,10 +7453,10 @@
         <v>2282.582743332807</v>
       </c>
       <c r="X41" t="n">
-        <v>1870.862744500554</v>
+        <v>2282.582743332807</v>
       </c>
       <c r="Y41" t="n">
-        <v>1465.525474455445</v>
+        <v>1877.245473287698</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>45.65165486665614</v>
       </c>
       <c r="I42" t="n">
-        <v>67.97953605634441</v>
+        <v>91.43684190075626</v>
       </c>
       <c r="J42" t="n">
-        <v>313.194841541517</v>
+        <v>176.2357339794196</v>
       </c>
       <c r="K42" t="n">
-        <v>470.8298136905623</v>
+        <v>333.8707061284649</v>
       </c>
       <c r="L42" t="n">
-        <v>690.3169000464917</v>
+        <v>553.3577924843943</v>
       </c>
       <c r="M42" t="n">
-        <v>949.5934683648049</v>
+        <v>812.6343608027075</v>
       </c>
       <c r="N42" t="n">
-        <v>1218.073720743805</v>
+        <v>1081.114613181708</v>
       </c>
       <c r="O42" t="n">
-        <v>1460.069983076002</v>
+        <v>1323.110875513905</v>
       </c>
       <c r="P42" t="n">
-        <v>1651.151695100411</v>
+        <v>1514.192587538314</v>
       </c>
       <c r="Q42" t="n">
-        <v>1770.772889828331</v>
+        <v>1665.317389543425</v>
       </c>
       <c r="R42" t="n">
         <v>1816.473060123147</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1090.767474985734</v>
+        <v>810.5173030182208</v>
       </c>
       <c r="C43" t="n">
-        <v>918.7949118646496</v>
+        <v>810.5173030182208</v>
       </c>
       <c r="D43" t="n">
-        <v>755.4781389914203</v>
+        <v>647.2005301449915</v>
       </c>
       <c r="E43" t="n">
-        <v>589.2699331442739</v>
+        <v>480.992324297845</v>
       </c>
       <c r="F43" t="n">
-        <v>417.4081589188343</v>
+        <v>417.4081589188344</v>
       </c>
       <c r="G43" t="n">
-        <v>252.1036876808934</v>
+        <v>252.1036876808935</v>
       </c>
       <c r="H43" t="n">
         <v>116.775996475728</v>
@@ -7569,22 +7569,22 @@
         <v>45.65165486665614</v>
       </c>
       <c r="J43" t="n">
-        <v>169.1445260968437</v>
+        <v>111.7496654182398</v>
       </c>
       <c r="K43" t="n">
-        <v>504.1329373344486</v>
+        <v>446.7380766558447</v>
       </c>
       <c r="L43" t="n">
-        <v>621.2258601284345</v>
+        <v>940.2198930409955</v>
       </c>
       <c r="M43" t="n">
-        <v>745.2134005652666</v>
+        <v>1064.207433477828</v>
       </c>
       <c r="N43" t="n">
-        <v>1265.562565217887</v>
+        <v>1186.523675288568</v>
       </c>
       <c r="O43" t="n">
-        <v>1673.903969412299</v>
+        <v>1673.9039694123</v>
       </c>
       <c r="P43" t="n">
         <v>2077.411054312498</v>
@@ -7596,25 +7596,25 @@
         <v>2282.582743332807</v>
       </c>
       <c r="S43" t="n">
-        <v>2282.582743332807</v>
+        <v>2129.047146423073</v>
       </c>
       <c r="T43" t="n">
-        <v>2043.313161739422</v>
+        <v>1889.777564829688</v>
       </c>
       <c r="U43" t="n">
-        <v>2043.313161739422</v>
+        <v>1609.645070791874</v>
       </c>
       <c r="V43" t="n">
-        <v>2024.692512389739</v>
+        <v>1327.933603399903</v>
       </c>
       <c r="W43" t="n">
-        <v>1749.840108562252</v>
+        <v>1053.081199572416</v>
       </c>
       <c r="X43" t="n">
-        <v>1507.276212008057</v>
+        <v>810.5173030182208</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.933443697799</v>
+        <v>810.5173030182208</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2226.603154604652</v>
+        <v>1147.281687290111</v>
       </c>
       <c r="C44" t="n">
-        <v>1799.702424617953</v>
+        <v>1147.281687290111</v>
       </c>
       <c r="D44" t="n">
-        <v>1376.409803802953</v>
+        <v>723.9890664751113</v>
       </c>
       <c r="E44" t="n">
-        <v>950.4328639508104</v>
+        <v>723.9890664751113</v>
       </c>
       <c r="F44" t="n">
-        <v>525.3086821402106</v>
+        <v>723.9890664751113</v>
       </c>
       <c r="G44" t="n">
         <v>321.7734360074543</v>
       </c>
       <c r="H44" t="n">
-        <v>45.65165486665613</v>
+        <v>45.65165486665614</v>
       </c>
       <c r="I44" t="n">
-        <v>91.6837554879969</v>
+        <v>91.68375548799699</v>
       </c>
       <c r="J44" t="n">
         <v>239.1951771864199</v>
       </c>
       <c r="K44" t="n">
-        <v>468.5215691359913</v>
+        <v>468.5215691359912</v>
       </c>
       <c r="L44" t="n">
-        <v>759.0177730780662</v>
+        <v>759.0177730780661</v>
       </c>
       <c r="M44" t="n">
         <v>1087.39705617444</v>
@@ -7672,28 +7672,28 @@
         <v>2186.533416978294</v>
       </c>
       <c r="R44" t="n">
-        <v>2282.582743332806</v>
+        <v>2282.582743332807</v>
       </c>
       <c r="S44" t="n">
-        <v>2226.603154604652</v>
+        <v>2282.582743332807</v>
       </c>
       <c r="T44" t="n">
-        <v>2226.603154604652</v>
+        <v>2070.95249570746</v>
       </c>
       <c r="U44" t="n">
-        <v>2226.603154604652</v>
+        <v>2070.95249570746</v>
       </c>
       <c r="V44" t="n">
-        <v>2226.603154604652</v>
+        <v>2070.95249570746</v>
       </c>
       <c r="W44" t="n">
-        <v>2226.603154604652</v>
+        <v>1674.561146007807</v>
       </c>
       <c r="X44" t="n">
-        <v>2226.603154604652</v>
+        <v>1262.841147175555</v>
       </c>
       <c r="Y44" t="n">
-        <v>2226.603154604652</v>
+        <v>1262.841147175555</v>
       </c>
     </row>
     <row r="45">
@@ -7721,10 +7721,10 @@
         <v>88.05506378226599</v>
       </c>
       <c r="H45" t="n">
-        <v>45.65165486665613</v>
+        <v>45.65165486665614</v>
       </c>
       <c r="I45" t="n">
-        <v>67.9795360563444</v>
+        <v>67.97953605634441</v>
       </c>
       <c r="J45" t="n">
         <v>313.194841541517</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>718.1072363243499</v>
+        <v>620.3513343061552</v>
       </c>
       <c r="C46" t="n">
-        <v>546.1346732032658</v>
+        <v>620.3513343061552</v>
       </c>
       <c r="D46" t="n">
-        <v>382.8179003300365</v>
+        <v>620.1504477862549</v>
       </c>
       <c r="E46" t="n">
-        <v>382.8179003300365</v>
+        <v>453.9422419391084</v>
       </c>
       <c r="F46" t="n">
-        <v>210.956126104597</v>
+        <v>282.0804677136688</v>
       </c>
       <c r="G46" t="n">
-        <v>45.65165486665613</v>
+        <v>116.775996475728</v>
       </c>
       <c r="H46" t="n">
-        <v>45.65165486665613</v>
+        <v>116.775996475728</v>
       </c>
       <c r="I46" t="n">
-        <v>45.65165486665613</v>
+        <v>45.65165486665614</v>
       </c>
       <c r="J46" t="n">
-        <v>169.1445260968437</v>
+        <v>91.22280944862288</v>
       </c>
       <c r="K46" t="n">
-        <v>256.8503282204266</v>
+        <v>410.9049204962263</v>
       </c>
       <c r="L46" t="n">
-        <v>750.3321446055775</v>
+        <v>904.3867368813771</v>
       </c>
       <c r="M46" t="n">
-        <v>1287.855165505231</v>
+        <v>1441.909757781031</v>
       </c>
       <c r="N46" t="n">
-        <v>1410.171407315971</v>
+        <v>1564.225999591771</v>
       </c>
       <c r="O46" t="n">
-        <v>1673.903969412299</v>
+        <v>1673.9039694123</v>
       </c>
       <c r="P46" t="n">
-        <v>2077.411054312497</v>
+        <v>2077.411054312498</v>
       </c>
       <c r="Q46" t="n">
-        <v>2282.582743332806</v>
+        <v>2282.582743332807</v>
       </c>
       <c r="R46" t="n">
-        <v>2278.371924764274</v>
+        <v>2282.582743332807</v>
       </c>
       <c r="S46" t="n">
-        <v>2124.836327854539</v>
+        <v>2129.047146423073</v>
       </c>
       <c r="T46" t="n">
-        <v>1885.566746261155</v>
+        <v>1889.777564829688</v>
       </c>
       <c r="U46" t="n">
-        <v>1885.566746261155</v>
+        <v>1609.645070791874</v>
       </c>
       <c r="V46" t="n">
-        <v>1603.855278869184</v>
+        <v>1327.933603399903</v>
       </c>
       <c r="W46" t="n">
-        <v>1377.179869900868</v>
+        <v>1053.081199572416</v>
       </c>
       <c r="X46" t="n">
-        <v>1134.615973346673</v>
+        <v>810.5173030182208</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2732050364154</v>
+        <v>810.5173030182208</v>
       </c>
     </row>
   </sheetData>
@@ -7987,7 +7987,7 @@
         <v>7.727993863709251</v>
       </c>
       <c r="M2" t="n">
-        <v>3.400615951243275</v>
+        <v>3.400615951243282</v>
       </c>
       <c r="N2" t="n">
         <v>2.698324440689774</v>
@@ -8145,7 +8145,7 @@
         <v>8.993937537569462</v>
       </c>
       <c r="M4" t="n">
-        <v>8.948026908651901</v>
+        <v>8.948026908651903</v>
       </c>
       <c r="N4" t="n">
         <v>7.445517414732592</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>13.66857857534914</v>
+        <v>11.33477671814256</v>
       </c>
       <c r="K5" t="n">
         <v>8.659599926410685</v>
@@ -8224,13 +8224,13 @@
         <v>7.01969392445254</v>
       </c>
       <c r="M5" t="n">
-        <v>2.349493409620685</v>
+        <v>2.349493409620686</v>
       </c>
       <c r="N5" t="n">
-        <v>1.498135258931024</v>
+        <v>1.498135258931025</v>
       </c>
       <c r="O5" t="n">
-        <v>1.488812484839848</v>
+        <v>3.822614342046435</v>
       </c>
       <c r="P5" t="n">
         <v>6.933710081199632</v>
@@ -8379,7 +8379,7 @@
         <v>12.19358272168427</v>
       </c>
       <c r="L7" t="n">
-        <v>10.04214683412971</v>
+        <v>7.708344976923126</v>
       </c>
       <c r="M7" t="n">
         <v>7.592549806828204</v>
@@ -8391,7 +8391,7 @@
         <v>8.989126892018565</v>
       </c>
       <c r="P7" t="n">
-        <v>10.82060987411565</v>
+        <v>13.15441173132223</v>
       </c>
       <c r="Q7" t="n">
         <v>18.85539271003804</v>
@@ -8455,7 +8455,7 @@
         <v>1.152398102006444</v>
       </c>
       <c r="K8" t="n">
-        <v>8.006630128898429</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8473,7 +8473,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1585647136001427</v>
+        <v>8.165194842498568</v>
       </c>
       <c r="R8" t="n">
         <v>14.11143217127993</v>
@@ -8613,25 +8613,25 @@
         <v>35.60620759053388</v>
       </c>
       <c r="K10" t="n">
-        <v>3.60747870011792</v>
+        <v>29.13927426824634</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>25.23934636696551</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>23.41893289400922</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>26.91444405236408</v>
+        <v>1.382648484235652</v>
       </c>
       <c r="P10" t="n">
-        <v>4.311953536506707</v>
+        <v>25.85613287095076</v>
       </c>
       <c r="Q10" t="n">
-        <v>35.47422240652459</v>
+        <v>12.10962959912422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>197.1388831921429</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>298.504485226012</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.37539003541846</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8853,19 +8853,19 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>354.9948916164231</v>
+        <v>360.0219516362447</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>45.34488222711968</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>366.2873004017982</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
         <v>152.9025226039384</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>137.5758459478518</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>358.0675224703016</v>
+        <v>70.37539003541895</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,25 +9087,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>39.07953346156631</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>354.4082905479649</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>355.4735849779359</v>
       </c>
       <c r="O16" t="n">
         <v>366.2873004017981</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>47.79595194094711</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>256.4382709420381</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>239.2050974761156</v>
+        <v>7.360890261672864</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>358.0675224703016</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,22 +9324,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>282.5698706145105</v>
+        <v>126.5047566361197</v>
       </c>
       <c r="M19" t="n">
         <v>354.4082905479649</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>355.4735849779359</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>366.2873004017981</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>7.360890261673475</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>358.0675224703015</v>
+        <v>70.37539003541778</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9558,19 +9558,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>43.24758528263837</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>360.0219516362447</v>
+        <v>126.5047566361197</v>
       </c>
       <c r="M22" t="n">
-        <v>354.4082905479648</v>
+        <v>354.4082905479649</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>355.4735849779359</v>
       </c>
       <c r="O22" t="n">
         <v>366.2873004017981</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>162.0367812186961</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>31.82182553251667</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,13 +9795,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>221.0484249223105</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>299.7572296174834</v>
       </c>
       <c r="M25" t="n">
         <v>417.7126065281028</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>162.0367812186962</v>
+        <v>31.82182553251674</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>21.36367638349191</v>
       </c>
       <c r="L28" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>69.47260000729912</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>31.82182553251678</v>
       </c>
       <c r="P30" t="n">
-        <v>162.0367812186961</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,13 +10269,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
         <v>417.7126065281028</v>
@@ -10284,10 +10284,10 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>381.5174992961649</v>
+        <v>234.319503963657</v>
       </c>
       <c r="P31" t="n">
-        <v>220.4189464879256</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
         <v>152.9025226039384</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>162.0367812186961</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>31.82182553251667</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,25 +10509,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
-        <v>380.1908016072373</v>
+        <v>322.2161948611719</v>
       </c>
       <c r="M34" t="n">
-        <v>258.5702298431763</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>138.3425328910074</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>31.82182553251667</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10749,16 +10749,16 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
-        <v>380.1908016072373</v>
+        <v>322.2161948611728</v>
       </c>
       <c r="M37" t="n">
-        <v>323.5428925500994</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
         <v>315.9153581548562</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10910,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>55.51607386020549</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>31.82182553251667</v>
       </c>
       <c r="R39" t="n">
         <v>106.5207073584907</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>299.7572296174831</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>323.5428925501002</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>162.0367812186961</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>31.82182553251667</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,22 +11217,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>20.73419794910798</v>
       </c>
       <c r="K43" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>301.6802367412964</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
         <v>315.9153581548562</v>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>162.0367812186962</v>
+        <v>162.0367812186961</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11454,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>234.3195039636571</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
@@ -11469,7 +11469,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>155.6106992684836</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>315.9153581548562</v>
@@ -22786,10 +22786,10 @@
         <v>413.5942679727872</v>
       </c>
       <c r="C5" t="n">
-        <v>420.2979208296263</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>416.7258927496431</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
@@ -22798,7 +22798,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.0825884389156</v>
+        <v>397.748786581709</v>
       </c>
       <c r="H5" t="n">
         <v>292.7074549078116</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>98.46798440374585</v>
+        <v>96.13418254653925</v>
       </c>
       <c r="T5" t="n">
         <v>217.7835428919996</v>
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>125.3039374686555</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C6" t="n">
-        <v>113.9970425904637</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D6" t="n">
         <v>102.8015588998678</v>
@@ -22880,7 +22880,7 @@
         <v>92.99922442254206</v>
       </c>
       <c r="H6" t="n">
-        <v>49.68562650777542</v>
+        <v>49.4074373263964</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -22913,16 +22913,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>78.39332586788025</v>
+        <v>76.05952401067366</v>
       </c>
       <c r="T6" t="n">
-        <v>140.0015974811513</v>
+        <v>137.9459848053237</v>
       </c>
       <c r="U6" t="n">
         <v>182.9130134852156</v>
       </c>
       <c r="V6" t="n">
-        <v>202.9234074721264</v>
+        <v>200.5896056149198</v>
       </c>
       <c r="W6" t="n">
         <v>194.556163395115</v>
@@ -22931,7 +22931,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y6" t="n">
-        <v>135.9621579030339</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="7">
@@ -22941,13 +22941,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.9305071677384</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9190356326665</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>159.3498032872904</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -22959,10 +22959,10 @@
         <v>164.4988181546643</v>
       </c>
       <c r="H7" t="n">
-        <v>141.5084962318651</v>
+        <v>139.4528835560375</v>
       </c>
       <c r="I7" t="n">
-        <v>95.89647554818475</v>
+        <v>93.56267369097816</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22992,7 +22992,7 @@
         <v>39.93671759421289</v>
       </c>
       <c r="S7" t="n">
-        <v>164.7123532919938</v>
+        <v>166.7679659678213</v>
       </c>
       <c r="T7" t="n">
         <v>240.4975591017995</v>
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>393.1614751122072</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>393.5278990387213</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>420.9365942908449</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
@@ -23041,7 +23041,7 @@
         <v>291.4788031161503</v>
       </c>
       <c r="I8" t="n">
-        <v>21.70782937363144</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,19 +23074,19 @@
         <v>95.73414793822852</v>
       </c>
       <c r="T8" t="n">
-        <v>191.7265747894641</v>
+        <v>217.2583703575925</v>
       </c>
       <c r="U8" t="n">
         <v>255.7447159712177</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>328.3827251568846</v>
       </c>
       <c r="W8" t="n">
         <v>366.8956406345281</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>382.0710032758018</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -23117,7 +23117,7 @@
         <v>92.93503434185737</v>
       </c>
       <c r="H9" t="n">
-        <v>51.12129814120099</v>
+        <v>25.58950257307256</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23150,13 +23150,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>77.20102327270656</v>
+        <v>51.66922770457814</v>
       </c>
       <c r="T9" t="n">
-        <v>114.211070842193</v>
+        <v>139.7428664103214</v>
       </c>
       <c r="U9" t="n">
-        <v>157.3769948854632</v>
+        <v>182.9087904535916</v>
       </c>
       <c r="V9" t="n">
         <v>202.9234074721264</v>
@@ -23181,13 +23181,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>147.7644319534656</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>136.1518095763686</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>139.0143282205466</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>144.6113609150568</v>
@@ -23235,19 +23235,19 @@
         <v>240.2676231067096</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3744551058947</v>
+        <v>254.8860495694872</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>246.5720842210837</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>198.547545059027</v>
       </c>
     </row>
     <row r="11">
@@ -23260,22 +23260,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>336.3625924329345</v>
       </c>
       <c r="G11" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.4188158527196</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>63.90941067458682</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,10 +23418,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -23430,13 +23430,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>180.3030071627084</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>87.62383156261942</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -23506,10 +23506,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>163.5206486131856</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.90941067458682</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T14" t="n">
-        <v>211.1448086517629</v>
+        <v>172.8210787002499</v>
       </c>
       <c r="U14" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I16" t="n">
-        <v>34.85506966490762</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>11.68284247578063</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T16" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>68.53689175204912</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23734,16 +23734,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>181.2070483028595</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23785,13 +23785,13 @@
         <v>63.90941067458683</v>
       </c>
       <c r="T17" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.632988972596</v>
+        <v>155.7372281261335</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>128.9073711041195</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>163.8185422817731</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.105667979118842</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S19" t="n">
         <v>154.9126128011615</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -23983,7 +23983,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>361.3438195732319</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>277.176001558223</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>61.48928721036681</v>
       </c>
       <c r="T20" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>255.632988972596</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>120.3381387587438</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>140.5902135799003</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.68284247578063</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>154.9126128011615</v>
@@ -24220,7 +24220,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>398.1934741629804</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>55.41979284087236</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>69.73524383197721</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>134.5643613537997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24372,19 +24372,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.6514265255614</v>
+        <v>163.3427888635183</v>
       </c>
       <c r="H25" t="n">
-        <v>42.31289080605768</v>
+        <v>133.9744142931138</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>70.41309819298111</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>4.168710382847181</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>152.0002409406371</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24445,19 +24445,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>348.3922224917261</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>317.2376831240865</v>
+        <v>398.1934741629804</v>
       </c>
       <c r="H26" t="n">
         <v>273.3605633293901</v>
@@ -24496,19 +24496,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.5139451490932</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6031844996746</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.9744142931138</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>70.41309819298111</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>4.168710382847181</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>152.0002409406371</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>7.173837540034583</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>119.9327754861887</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>342.0733209924538</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>398.1934741629804</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>273.3605633293901</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>55.41979284087236</v>
       </c>
       <c r="T29" t="n">
-        <v>209.5139451490932</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6031844996746</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>89.32428647981237</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>107.1948327579646</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>133.9744142931138</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>4.168710382847181</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3311690974361</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>112.5112904090504</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>398.1934741629804</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>85.09711235364608</v>
+        <v>273.3605633293901</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>255.6031844996746</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>300.7315295219154</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25083,7 +25083,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.9744142931138</v>
       </c>
       <c r="I34" t="n">
         <v>70.41309819298111</v>
@@ -25128,10 +25128,10 @@
         <v>152.0002409406371</v>
       </c>
       <c r="T34" t="n">
-        <v>236.8768857774508</v>
+        <v>7.173837540034583</v>
       </c>
       <c r="U34" t="n">
-        <v>68.8174898443721</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>141.2737876506793</v>
+        <v>398.1934741629804</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>55.41979284087236</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.5139451490932</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6031844996746</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>214.0755185395922</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>149.176523823632</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>80.52370816813264</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>133.9744142931138</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>70.41309819298111</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.168710382847181</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3311690974361</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>348.3922224917252</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25456,10 +25456,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>342.0733209924538</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.6514265255614</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>133.9744142931138</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>70.41309819298111</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>4.168710382847181</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>152.0002409406371</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>73.04580264929115</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>61.53522818556223</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>117.4307005834808</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>248.9451384791655</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>273.3605633293901</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>107.1948327579646</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>4.168710382847181</v>
       </c>
       <c r="S43" t="n">
-        <v>152.0002409406371</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3311690974361</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>260.4599098618651</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>301.2460153620256</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>196.6935804915516</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>55.41979284087236</v>
       </c>
       <c r="T44" t="n">
-        <v>209.5139451490932</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>255.6031844996746</v>
@@ -25927,10 +25927,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.4847274897957</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>133.9744142931138</v>
       </c>
       <c r="I46" t="n">
-        <v>70.41309819298111</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>4.168710382847181</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3311690974361</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>47.69522491057984</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>55730.82950043857</v>
+        <v>55730.82950043858</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>71390.57398140364</v>
+        <v>71390.57398140361</v>
       </c>
     </row>
     <row r="5">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>395439.5374536731</v>
+        <v>395439.5374536732</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>452462.0672072632</v>
+        <v>452462.0672072633</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>452462.0672072632</v>
+        <v>452462.0672072631</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>452462.0672072631</v>
+        <v>452462.0672072632</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>452462.0672072631</v>
+        <v>452462.0672072632</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>452462.0672072632</v>
+        <v>452462.0672072633</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21435.02786048426</v>
+        <v>21435.02786048425</v>
       </c>
       <c r="C2" t="n">
         <v>22210.58615624666</v>
       </c>
       <c r="D2" t="n">
-        <v>29617.3387089905</v>
+        <v>29617.33870899051</v>
       </c>
       <c r="E2" t="n">
         <v>161457.746786893</v>
@@ -26334,16 +26334,16 @@
         <v>161457.7467868929</v>
       </c>
       <c r="I2" t="n">
-        <v>187018.4208214994</v>
+        <v>187018.4208214995</v>
       </c>
       <c r="J2" t="n">
         <v>187018.4208214995</v>
       </c>
       <c r="K2" t="n">
-        <v>187018.4208214994</v>
+        <v>187018.4208214996</v>
       </c>
       <c r="L2" t="n">
-        <v>187018.4208214996</v>
+        <v>187018.4208214995</v>
       </c>
       <c r="M2" t="n">
         <v>187018.4208214995</v>
@@ -26352,10 +26352,10 @@
         <v>187018.4208214995</v>
       </c>
       <c r="O2" t="n">
-        <v>187018.4208214994</v>
+        <v>187018.4208214995</v>
       </c>
       <c r="P2" t="n">
-        <v>187018.4208214994</v>
+        <v>187018.4208214995</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>46455.06528471148</v>
       </c>
       <c r="C3" t="n">
-        <v>5120.526477543083</v>
+        <v>5120.526477543084</v>
       </c>
       <c r="D3" t="n">
         <v>32763.74751671067</v>
       </c>
       <c r="E3" t="n">
-        <v>406870.6966231569</v>
+        <v>406870.6966231568</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,16 +26386,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>100923.9630232994</v>
+        <v>100923.9630232995</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>600.6459163855452</v>
+        <v>600.645916385549</v>
       </c>
       <c r="L3" t="n">
-        <v>5871.203426290922</v>
+        <v>5871.203426290915</v>
       </c>
       <c r="M3" t="n">
         <v>106639.445559736</v>
@@ -26423,31 +26423,31 @@
         <v>3908.152229012913</v>
       </c>
       <c r="D4" t="n">
-        <v>2305.590262303835</v>
+        <v>2305.590262303834</v>
       </c>
       <c r="E4" t="n">
-        <v>19098.00660565761</v>
+        <v>19098.0066056576</v>
       </c>
       <c r="F4" t="n">
-        <v>19098.00660565757</v>
+        <v>19098.0066056576</v>
       </c>
       <c r="G4" t="n">
-        <v>19098.00660565758</v>
+        <v>19098.00660565759</v>
       </c>
       <c r="H4" t="n">
-        <v>19098.0066056576</v>
+        <v>19098.00660565759</v>
       </c>
       <c r="I4" t="n">
         <v>16550.64421217007</v>
       </c>
       <c r="J4" t="n">
-        <v>16550.64421217006</v>
+        <v>16550.64421217007</v>
       </c>
       <c r="K4" t="n">
         <v>16550.64421217007</v>
       </c>
       <c r="L4" t="n">
-        <v>16550.64421217007</v>
+        <v>16550.64421217006</v>
       </c>
       <c r="M4" t="n">
         <v>16550.64421217007</v>
@@ -26475,13 +26475,13 @@
         <v>34924.99287573772</v>
       </c>
       <c r="D5" t="n">
-        <v>36986.00299180978</v>
+        <v>36986.00299180979</v>
       </c>
       <c r="E5" t="n">
-        <v>36949.30081304156</v>
+        <v>36949.30081304155</v>
       </c>
       <c r="F5" t="n">
-        <v>36949.30081304156</v>
+        <v>36949.30081304155</v>
       </c>
       <c r="G5" t="n">
         <v>36949.30081304155</v>
@@ -26490,28 +26490,28 @@
         <v>36949.30081304155</v>
       </c>
       <c r="I5" t="n">
-        <v>46094.94986130585</v>
+        <v>46094.94986130587</v>
       </c>
       <c r="J5" t="n">
         <v>46094.94986130585</v>
       </c>
       <c r="K5" t="n">
+        <v>46094.94986130587</v>
+      </c>
+      <c r="L5" t="n">
         <v>46094.94986130585</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>46094.94986130587</v>
       </c>
-      <c r="M5" t="n">
-        <v>46094.94986130585</v>
-      </c>
       <c r="N5" t="n">
-        <v>46094.94986130585</v>
+        <v>46094.94986130587</v>
       </c>
       <c r="O5" t="n">
-        <v>46094.94986130585</v>
+        <v>46094.94986130587</v>
       </c>
       <c r="P5" t="n">
-        <v>46094.94986130585</v>
+        <v>46094.94986130587</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-64127.46792871316</v>
+        <v>-65481.50303750068</v>
       </c>
       <c r="C6" t="n">
-        <v>-21743.08542604706</v>
+        <v>-23093.42740009284</v>
       </c>
       <c r="D6" t="n">
-        <v>-42438.00206183379</v>
+        <v>-43753.07378562841</v>
       </c>
       <c r="E6" t="n">
-        <v>-301460.257254963</v>
+        <v>-302147.51751172</v>
       </c>
       <c r="F6" t="n">
-        <v>105410.4393681938</v>
+        <v>104723.1791114367</v>
       </c>
       <c r="G6" t="n">
-        <v>105410.4393681938</v>
+        <v>104723.1791114369</v>
       </c>
       <c r="H6" t="n">
-        <v>105410.4393681937</v>
+        <v>104723.1791114368</v>
       </c>
       <c r="I6" t="n">
-        <v>23448.8637247241</v>
+        <v>22883.32096336997</v>
       </c>
       <c r="J6" t="n">
-        <v>124372.8267480236</v>
+        <v>123807.2839866695</v>
       </c>
       <c r="K6" t="n">
-        <v>123772.180831638</v>
+        <v>123206.638070284</v>
       </c>
       <c r="L6" t="n">
-        <v>118501.6233217327</v>
+        <v>117936.0805603785</v>
       </c>
       <c r="M6" t="n">
-        <v>17733.38118828756</v>
+        <v>17167.83842693341</v>
       </c>
       <c r="N6" t="n">
-        <v>124372.8267480235</v>
+        <v>123807.2839866694</v>
       </c>
       <c r="O6" t="n">
-        <v>124372.8267480235</v>
+        <v>123807.2839866694</v>
       </c>
       <c r="P6" t="n">
-        <v>124372.8267480235</v>
+        <v>123807.2839866695</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>82.84723950768694</v>
       </c>
       <c r="E3" t="n">
-        <v>430.2483758469462</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="F3" t="n">
-        <v>430.2483758469461</v>
+        <v>430.248375846946</v>
       </c>
       <c r="G3" t="n">
         <v>430.2483758469461</v>
@@ -26792,13 +26792,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.333801857206588</v>
+        <v>2.333801857206589</v>
       </c>
       <c r="D4" t="n">
         <v>25.53179556812842</v>
       </c>
       <c r="E4" t="n">
-        <v>453.4520759799036</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="F4" t="n">
         <v>453.4520759799035</v>
@@ -26807,31 +26807,31 @@
         <v>453.4520759799035</v>
       </c>
       <c r="H4" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="I4" t="n">
-        <v>570.6456858332017</v>
+        <v>570.6456858332018</v>
       </c>
       <c r="J4" t="n">
         <v>570.6456858332016</v>
       </c>
       <c r="K4" t="n">
-        <v>570.6456858332017</v>
+        <v>570.6456858332018</v>
       </c>
       <c r="L4" t="n">
+        <v>570.6456858332016</v>
+      </c>
+      <c r="M4" t="n">
         <v>570.6456858332018</v>
       </c>
-      <c r="M4" t="n">
-        <v>570.6456858332016</v>
-      </c>
       <c r="N4" t="n">
-        <v>570.6456858332017</v>
+        <v>570.6456858332018</v>
       </c>
       <c r="O4" t="n">
-        <v>570.6456858332017</v>
+        <v>570.6456858332018</v>
       </c>
       <c r="P4" t="n">
-        <v>570.6456858332016</v>
+        <v>570.6456858332018</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>29.84275680954191</v>
       </c>
       <c r="E3" t="n">
-        <v>347.4011363392593</v>
+        <v>347.4011363392592</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>92.67328299008102</v>
+        <v>92.67328299008108</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.333801857206588</v>
+        <v>2.333801857206589</v>
       </c>
       <c r="D4" t="n">
         <v>23.19799371092184</v>
       </c>
       <c r="E4" t="n">
-        <v>427.9202804117752</v>
+        <v>427.9202804117751</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2.333801857206588</v>
+        <v>2.333801857206603</v>
       </c>
       <c r="L4" t="n">
-        <v>23.19799371092185</v>
+        <v>23.19799371092182</v>
       </c>
       <c r="M4" t="n">
-        <v>427.9202804117752</v>
+        <v>427.9202804117751</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2.333801857206588</v>
+        <v>2.333801857206589</v>
       </c>
       <c r="L4" t="n">
         <v>23.19799371092184</v>
       </c>
       <c r="M4" t="n">
-        <v>427.9202804117752</v>
+        <v>427.9202804117751</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31047,7 +31047,7 @@
         <v>1.984816231208193</v>
       </c>
       <c r="I2" t="n">
-        <v>7.471707824108768</v>
+        <v>7.471707824108769</v>
       </c>
       <c r="J2" t="n">
         <v>16.44904641557491</v>
@@ -31059,7 +31059,7 @@
         <v>30.58404856891367</v>
       </c>
       <c r="M2" t="n">
-        <v>34.03064694818854</v>
+        <v>34.03064694818853</v>
       </c>
       <c r="N2" t="n">
         <v>34.58129839375625</v>
@@ -31156,7 +31156,7 @@
         <v>6.438209625828375</v>
       </c>
       <c r="S3" t="n">
-        <v>1.926096197045998</v>
+        <v>1.926096197045997</v>
       </c>
       <c r="T3" t="n">
         <v>0.4179651487804657</v>
@@ -31232,7 +31232,7 @@
         <v>7.279597574951182</v>
       </c>
       <c r="R4" t="n">
-        <v>3.908901270840141</v>
+        <v>3.90890127084014</v>
       </c>
       <c r="S4" t="n">
         <v>1.51503512660747</v>
@@ -31758,43 +31758,43 @@
         <v>17.71369318248255</v>
       </c>
       <c r="I11" t="n">
-        <v>66.68201209985688</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J11" t="n">
-        <v>146.8011782494061</v>
+        <v>146.801178249406</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0169119161447</v>
+        <v>220.0169119161446</v>
       </c>
       <c r="L11" t="n">
-        <v>272.9504344581587</v>
+        <v>272.9504344581586</v>
       </c>
       <c r="M11" t="n">
-        <v>303.7099502530054</v>
+        <v>303.7099502530053</v>
       </c>
       <c r="N11" t="n">
-        <v>308.6242947670763</v>
+        <v>308.6242947670762</v>
       </c>
       <c r="O11" t="n">
         <v>291.4251699938981</v>
       </c>
       <c r="P11" t="n">
-        <v>248.7246402301937</v>
+        <v>248.7246402301936</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.781846421073</v>
+        <v>186.7818464210729</v>
       </c>
       <c r="R11" t="n">
-        <v>108.6496061881236</v>
+        <v>108.6496061881235</v>
       </c>
       <c r="S11" t="n">
-        <v>39.41421051100418</v>
+        <v>39.41421051100416</v>
       </c>
       <c r="T11" t="n">
-        <v>7.571506594050278</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1383713369558017</v>
+        <v>0.1383713369558016</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,28 +31831,28 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9254399027651296</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H12" t="n">
-        <v>8.937801166179016</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I12" t="n">
-        <v>31.86273349432574</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J12" t="n">
-        <v>87.433776076595</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K12" t="n">
-        <v>149.4382495618587</v>
+        <v>149.4382495618586</v>
       </c>
       <c r="L12" t="n">
-        <v>200.9381683613498</v>
+        <v>200.9381683613497</v>
       </c>
       <c r="M12" t="n">
-        <v>234.4853648365857</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N12" t="n">
-        <v>240.6914947108308</v>
+        <v>240.6914947108307</v>
       </c>
       <c r="O12" t="n">
         <v>220.1856947600876</v>
@@ -31864,16 +31864,16 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R12" t="n">
-        <v>57.4584529102771</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S12" t="n">
-        <v>17.18964029916808</v>
+        <v>17.18964029916807</v>
       </c>
       <c r="T12" t="n">
-        <v>3.730172239654183</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06088420412928486</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,46 +31910,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.775857726937116</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H13" t="n">
-        <v>6.898080517677273</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I13" t="n">
         <v>23.332157824618</v>
       </c>
       <c r="J13" t="n">
-        <v>54.8531412944541</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K13" t="n">
-        <v>90.14056136596673</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L13" t="n">
-        <v>115.34888423936</v>
+        <v>115.3488842393599</v>
       </c>
       <c r="M13" t="n">
-        <v>121.6192253234245</v>
+        <v>121.6192253234244</v>
       </c>
       <c r="N13" t="n">
         <v>118.727391977568</v>
       </c>
       <c r="O13" t="n">
-        <v>109.6639630765299</v>
+        <v>109.6639630765298</v>
       </c>
       <c r="P13" t="n">
-        <v>93.83646544701261</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.96750475288887</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R13" t="n">
-        <v>34.88538470391796</v>
+        <v>34.88538470391794</v>
       </c>
       <c r="S13" t="n">
-        <v>13.52108420489501</v>
+        <v>13.521084204895</v>
       </c>
       <c r="T13" t="n">
-        <v>3.315028469640404</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U13" t="n">
         <v>0.04231951237838819</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.729641711947521</v>
+        <v>1.72964171194752</v>
       </c>
       <c r="H14" t="n">
         <v>17.71369318248255</v>
       </c>
       <c r="I14" t="n">
-        <v>66.68201209985686</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J14" t="n">
         <v>146.801178249406</v>
@@ -32010,25 +32010,25 @@
         <v>303.7099502530053</v>
       </c>
       <c r="N14" t="n">
-        <v>308.6242947670763</v>
+        <v>308.6242947670762</v>
       </c>
       <c r="O14" t="n">
-        <v>291.4251699938981</v>
+        <v>291.425169993898</v>
       </c>
       <c r="P14" t="n">
         <v>248.7246402301936</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.781846421073</v>
+        <v>186.7818464210729</v>
       </c>
       <c r="R14" t="n">
-        <v>108.6496061881236</v>
+        <v>108.6496061881235</v>
       </c>
       <c r="S14" t="n">
-        <v>39.41421051100417</v>
+        <v>39.41421051100416</v>
       </c>
       <c r="T14" t="n">
-        <v>7.571506594050277</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U14" t="n">
         <v>0.1383713369558016</v>
@@ -32068,28 +32068,28 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9254399027651294</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H15" t="n">
-        <v>8.937801166179016</v>
+        <v>8.937801166179012</v>
       </c>
       <c r="I15" t="n">
-        <v>31.86273349432573</v>
+        <v>31.86273349432572</v>
       </c>
       <c r="J15" t="n">
-        <v>87.43377607659498</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K15" t="n">
-        <v>149.4382495618587</v>
+        <v>149.4382495618586</v>
       </c>
       <c r="L15" t="n">
         <v>200.9381683613497</v>
       </c>
       <c r="M15" t="n">
-        <v>234.4853648365856</v>
+        <v>234.4853648365855</v>
       </c>
       <c r="N15" t="n">
-        <v>240.6914947108308</v>
+        <v>240.6914947108307</v>
       </c>
       <c r="O15" t="n">
         <v>220.1856947600876</v>
@@ -32101,16 +32101,16 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R15" t="n">
-        <v>57.4584529102771</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S15" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T15" t="n">
-        <v>3.730172239654183</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06088420412928486</v>
+        <v>0.06088420412928484</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7758577269371159</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H16" t="n">
-        <v>6.898080517677272</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I16" t="n">
         <v>23.332157824618</v>
       </c>
       <c r="J16" t="n">
-        <v>54.85314129445409</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K16" t="n">
-        <v>90.14056136596672</v>
+        <v>90.14056136596669</v>
       </c>
       <c r="L16" t="n">
-        <v>115.34888423936</v>
+        <v>115.3488842393599</v>
       </c>
       <c r="M16" t="n">
         <v>121.6192253234244</v>
@@ -32174,22 +32174,22 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P16" t="n">
-        <v>93.8364654470126</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.96750475288887</v>
+        <v>64.96750475288884</v>
       </c>
       <c r="R16" t="n">
-        <v>34.88538470391795</v>
+        <v>34.88538470391794</v>
       </c>
       <c r="S16" t="n">
-        <v>13.52108420489501</v>
+        <v>13.521084204895</v>
       </c>
       <c r="T16" t="n">
-        <v>3.315028469640403</v>
+        <v>3.315028469640402</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04231951237838819</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>17.71369318248255</v>
       </c>
       <c r="I20" t="n">
-        <v>66.68201209985686</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J20" t="n">
         <v>146.801178249406</v>
@@ -32484,7 +32484,7 @@
         <v>303.7099502530053</v>
       </c>
       <c r="N20" t="n">
-        <v>308.6242947670763</v>
+        <v>308.6242947670762</v>
       </c>
       <c r="O20" t="n">
         <v>291.4251699938981</v>
@@ -32493,16 +32493,16 @@
         <v>248.7246402301936</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.781846421073</v>
+        <v>186.7818464210729</v>
       </c>
       <c r="R20" t="n">
-        <v>108.6496061881236</v>
+        <v>108.6496061881235</v>
       </c>
       <c r="S20" t="n">
-        <v>39.41421051100417</v>
+        <v>39.41421051100416</v>
       </c>
       <c r="T20" t="n">
-        <v>7.571506594050277</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U20" t="n">
         <v>0.1383713369558016</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9254399027651294</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H21" t="n">
-        <v>8.937801166179016</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I21" t="n">
         <v>31.86273349432573</v>
@@ -32554,7 +32554,7 @@
         <v>87.43377607659498</v>
       </c>
       <c r="K21" t="n">
-        <v>149.4382495618587</v>
+        <v>149.4382495618586</v>
       </c>
       <c r="L21" t="n">
         <v>200.9381683613497</v>
@@ -32563,7 +32563,7 @@
         <v>234.4853648365856</v>
       </c>
       <c r="N21" t="n">
-        <v>240.6914947108308</v>
+        <v>240.6914947108307</v>
       </c>
       <c r="O21" t="n">
         <v>220.1856947600876</v>
@@ -32575,16 +32575,16 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R21" t="n">
-        <v>57.4584529102771</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S21" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T21" t="n">
-        <v>3.730172239654183</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06088420412928486</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,19 +32624,19 @@
         <v>0.7758577269371159</v>
       </c>
       <c r="H22" t="n">
-        <v>6.898080517677272</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I22" t="n">
         <v>23.332157824618</v>
       </c>
       <c r="J22" t="n">
-        <v>54.85314129445409</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K22" t="n">
-        <v>90.14056136596672</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L22" t="n">
-        <v>115.34888423936</v>
+        <v>115.3488842393599</v>
       </c>
       <c r="M22" t="n">
         <v>121.6192253234244</v>
@@ -32648,16 +32648,16 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P22" t="n">
-        <v>93.8364654470126</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.96750475288887</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R22" t="n">
-        <v>34.88538470391795</v>
+        <v>34.88538470391794</v>
       </c>
       <c r="S22" t="n">
-        <v>13.52108420489501</v>
+        <v>13.521084204895</v>
       </c>
       <c r="T22" t="n">
         <v>3.315028469640403</v>
@@ -34392,7 +34392,7 @@
         <v>227.0136936110031</v>
       </c>
       <c r="R44" t="n">
-        <v>132.0521714650107</v>
+        <v>132.0521714650118</v>
       </c>
       <c r="S44" t="n">
         <v>47.90382834471863</v>
@@ -34935,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.333801857206588</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.333801857206588</v>
+        <v>2.333801857206589</v>
       </c>
       <c r="M5" t="n">
-        <v>2.333801857206588</v>
+        <v>2.333801857206589</v>
       </c>
       <c r="N5" t="n">
-        <v>2.239506832672989</v>
+        <v>2.23950683267299</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2.333801857206589</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35023,13 +35023,13 @@
         <v>2.239506832672987</v>
       </c>
       <c r="M6" t="n">
-        <v>2.333801857206588</v>
+        <v>2.333801857206589</v>
       </c>
       <c r="N6" t="n">
-        <v>2.333801857206588</v>
+        <v>2.333801857206589</v>
       </c>
       <c r="O6" t="n">
-        <v>2.333801857206588</v>
+        <v>2.333801857206589</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.333801857206588</v>
+        <v>2.333801857206589</v>
       </c>
       <c r="K7" t="n">
-        <v>2.333801857206588</v>
+        <v>2.333801857206589</v>
       </c>
       <c r="L7" t="n">
-        <v>2.333801857206588</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -35111,10 +35111,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.333801857206589</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.239506832672989</v>
+        <v>2.23950683267299</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>14.60777623871596</v>
+        <v>6.601146109817527</v>
       </c>
       <c r="L8" t="n">
         <v>14.24641283816826</v>
@@ -35193,7 +35193,7 @@
         <v>10.31825266315469</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>8.006630128898426</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35333,25 +35333,25 @@
         <v>25.53179556812842</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>25.53179556812842</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2924492011629134</v>
+        <v>25.53179556812842</v>
       </c>
       <c r="M10" t="n">
         <v>0.8431658598427987</v>
       </c>
       <c r="N10" t="n">
-        <v>25.53179556812842</v>
+        <v>2.112862674119199</v>
       </c>
       <c r="O10" t="n">
-        <v>25.53179556812842</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>21.54417933444405</v>
       </c>
       <c r="Q10" t="n">
-        <v>23.36459280740036</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>32.13410955589337</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J11" t="n">
         <v>117.3812187638195</v>
@@ -35415,25 +35415,25 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L11" t="n">
-        <v>234.6383920255358</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M11" t="n">
-        <v>266.2786873535736</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N11" t="n">
-        <v>271.3446719326303</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O11" t="n">
         <v>254.034210637874</v>
       </c>
       <c r="P11" t="n">
-        <v>211.1492784199624</v>
+        <v>211.1492784199623</v>
       </c>
       <c r="Q11" t="n">
         <v>150.6571718164749</v>
       </c>
       <c r="R11" t="n">
-        <v>73.61695629332709</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>15.69034674432574</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J12" t="n">
-        <v>66.82266174326166</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K12" t="n">
         <v>127.0390157285253</v>
       </c>
       <c r="L12" t="n">
-        <v>375.5619648392631</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M12" t="n">
-        <v>211.3885843242577</v>
+        <v>211.3885843242576</v>
       </c>
       <c r="N12" t="n">
         <v>219.3484664972891</v>
@@ -35506,13 +35506,13 @@
         <v>197.0138050378654</v>
       </c>
       <c r="P12" t="n">
-        <v>453.4520759799036</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q12" t="n">
-        <v>95.38455350960191</v>
+        <v>165.7599435450203</v>
       </c>
       <c r="R12" t="n">
-        <v>33.78553351613296</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>112.9251900057248</v>
       </c>
       <c r="K13" t="n">
-        <v>318.9563201597417</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L13" t="n">
-        <v>448.4250159600819</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="M13" t="n">
-        <v>99.04378543193864</v>
+        <v>144.3886676590583</v>
       </c>
       <c r="N13" t="n">
-        <v>97.97849100196764</v>
+        <v>97.9784910019676</v>
       </c>
       <c r="O13" t="n">
-        <v>453.4520759799036</v>
+        <v>87.16477557810538</v>
       </c>
       <c r="P13" t="n">
-        <v>71.45566478902613</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q13" t="n">
-        <v>193.2504645920424</v>
+        <v>193.2504645920423</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>32.13410955589336</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J14" t="n">
         <v>117.3812187638195</v>
@@ -35652,16 +35652,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L14" t="n">
-        <v>234.6383920255357</v>
+        <v>234.6383920255356</v>
       </c>
       <c r="M14" t="n">
-        <v>266.2786873535735</v>
+        <v>266.2786873535734</v>
       </c>
       <c r="N14" t="n">
-        <v>271.3446719326303</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O14" t="n">
-        <v>254.034210637874</v>
+        <v>254.0342106378739</v>
       </c>
       <c r="P14" t="n">
         <v>211.1492784199623</v>
@@ -35670,7 +35670,7 @@
         <v>150.6571718164749</v>
       </c>
       <c r="R14" t="n">
-        <v>73.61695629332709</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>15.69034674432573</v>
+        <v>39.38459507201445</v>
       </c>
       <c r="J15" t="n">
-        <v>204.3985076911135</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K15" t="n">
         <v>127.0390157285253</v>
       </c>
       <c r="L15" t="n">
-        <v>178.4230816471202</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M15" t="n">
-        <v>211.3885843242577</v>
+        <v>211.3885843242576</v>
       </c>
       <c r="N15" t="n">
         <v>219.3484664972891</v>
       </c>
       <c r="O15" t="n">
-        <v>197.0138050378654</v>
+        <v>197.0138050378653</v>
       </c>
       <c r="P15" t="n">
-        <v>154.9475907538916</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q15" t="n">
-        <v>453.4520759799035</v>
+        <v>165.7599435450208</v>
       </c>
       <c r="R15" t="n">
-        <v>33.78553351613295</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>112.9251900057248</v>
       </c>
       <c r="K16" t="n">
-        <v>318.9563201597417</v>
+        <v>69.17590691325469</v>
       </c>
       <c r="L16" t="n">
-        <v>132.5096578052251</v>
+        <v>93.43012434365872</v>
       </c>
       <c r="M16" t="n">
-        <v>99.04378543193862</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="N16" t="n">
-        <v>97.97849100196763</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="O16" t="n">
         <v>453.4520759799035</v>
       </c>
       <c r="P16" t="n">
-        <v>387.3710229438823</v>
+        <v>71.45566478902609</v>
       </c>
       <c r="Q16" t="n">
-        <v>193.2504645920424</v>
+        <v>88.143893929051</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>15.69034674432573</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J18" t="n">
         <v>66.82266174326165</v>
@@ -35977,16 +35977,16 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O18" t="n">
+        <v>197.0138050378654</v>
+      </c>
+      <c r="P18" t="n">
+        <v>162.3084810155644</v>
+      </c>
+      <c r="Q18" t="n">
         <v>453.4520759799035</v>
       </c>
-      <c r="P18" t="n">
-        <v>394.1526882300071</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>95.38455350960189</v>
-      </c>
       <c r="R18" t="n">
-        <v>33.78553351613294</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>34.21638531055221</v>
       </c>
       <c r="K19" t="n">
-        <v>318.9563201597416</v>
+        <v>69.17590691325471</v>
       </c>
       <c r="L19" t="n">
-        <v>375.9999949581693</v>
+        <v>219.9348809797784</v>
       </c>
       <c r="M19" t="n">
         <v>453.4520759799035</v>
       </c>
       <c r="N19" t="n">
-        <v>97.9784910019676</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="O19" t="n">
-        <v>87.16477557810538</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="P19" t="n">
-        <v>387.3710229438823</v>
+        <v>71.4556647890261</v>
       </c>
       <c r="Q19" t="n">
         <v>40.34794198810391</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>32.13410955589336</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J20" t="n">
         <v>117.3812187638195</v>
@@ -36132,7 +36132,7 @@
         <v>266.2786873535735</v>
       </c>
       <c r="N20" t="n">
-        <v>271.3446719326303</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O20" t="n">
         <v>254.034210637874</v>
@@ -36144,7 +36144,7 @@
         <v>150.6571718164749</v>
       </c>
       <c r="R20" t="n">
-        <v>73.61695629332709</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>39.38459507201446</v>
       </c>
       <c r="J21" t="n">
-        <v>74.18355200493512</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K21" t="n">
         <v>127.0390157285253</v>
       </c>
       <c r="L21" t="n">
-        <v>178.4230816471202</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M21" t="n">
-        <v>211.3885843242577</v>
+        <v>211.3885843242576</v>
       </c>
       <c r="N21" t="n">
         <v>219.3484664972891</v>
@@ -36217,10 +36217,10 @@
         <v>197.0138050378654</v>
       </c>
       <c r="P21" t="n">
-        <v>154.9475907538916</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q21" t="n">
-        <v>453.4520759799034</v>
+        <v>165.7599435450197</v>
       </c>
       <c r="R21" t="n">
         <v>140.3062408746237</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>112.9251900057248</v>
+        <v>34.21638531055221</v>
       </c>
       <c r="K22" t="n">
-        <v>112.4234921958931</v>
+        <v>69.17590691325471</v>
       </c>
       <c r="L22" t="n">
-        <v>453.4520759799034</v>
+        <v>219.9348809797784</v>
       </c>
       <c r="M22" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="N22" t="n">
-        <v>97.97849100196763</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="O22" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="P22" t="n">
-        <v>71.45566478902612</v>
+        <v>71.4556647890261</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.34794198810393</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>22.55341534311947</v>
+        <v>46.24766367080819</v>
       </c>
       <c r="J24" t="n">
-        <v>247.6922277628006</v>
+        <v>85.65544654410444</v>
       </c>
       <c r="K24" t="n">
         <v>159.2272445949953</v>
@@ -36457,10 +36457,10 @@
         <v>193.0118303276854</v>
       </c>
       <c r="Q24" t="n">
-        <v>120.8294896241615</v>
+        <v>152.6513151566782</v>
       </c>
       <c r="R24" t="n">
-        <v>46.16178817658189</v>
+        <v>152.6824955350726</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>124.7402739698865</v>
+        <v>46.03146927471387</v>
       </c>
       <c r="K25" t="n">
-        <v>309.6401442390609</v>
+        <v>88.59171931675039</v>
       </c>
       <c r="L25" t="n">
-        <v>118.2756795898847</v>
+        <v>418.0329092073682</v>
       </c>
       <c r="M25" t="n">
         <v>542.9525463632867</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>22.55341534311947</v>
+        <v>46.24766367080819</v>
       </c>
       <c r="J27" t="n">
-        <v>247.6922277628006</v>
+        <v>117.4772720766212</v>
       </c>
       <c r="K27" t="n">
         <v>159.2272445949953</v>
@@ -36697,7 +36697,7 @@
         <v>120.8294896241615</v>
       </c>
       <c r="R27" t="n">
-        <v>46.16178817658189</v>
+        <v>152.6824955350726</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>124.7402739698865</v>
+        <v>46.03146927471387</v>
       </c>
       <c r="K28" t="n">
-        <v>88.59171931675039</v>
+        <v>109.9553957002423</v>
       </c>
       <c r="L28" t="n">
         <v>498.4664811971221</v>
       </c>
       <c r="M28" t="n">
-        <v>542.9525463632867</v>
+        <v>125.239939835184</v>
       </c>
       <c r="N28" t="n">
         <v>525.6052168208284</v>
       </c>
       <c r="O28" t="n">
-        <v>110.7858281015444</v>
+        <v>492.3033273977093</v>
       </c>
       <c r="P28" t="n">
-        <v>161.1401558930472</v>
+        <v>407.5829140406042</v>
       </c>
       <c r="Q28" t="n">
-        <v>207.2441303235446</v>
+        <v>54.34160771960616</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>22.55341534311947</v>
+        <v>46.24766367080819</v>
       </c>
       <c r="J30" t="n">
         <v>85.65544654410444</v>
@@ -36925,16 +36925,16 @@
         <v>271.1921741202024</v>
       </c>
       <c r="O30" t="n">
-        <v>244.4406690224213</v>
+        <v>276.2624945549381</v>
       </c>
       <c r="P30" t="n">
-        <v>355.0486115463816</v>
+        <v>193.0118303276854</v>
       </c>
       <c r="Q30" t="n">
         <v>120.8294896241615</v>
       </c>
       <c r="R30" t="n">
-        <v>46.16178817658189</v>
+        <v>152.6824955350726</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>124.7402739698865</v>
+        <v>46.03146927471387</v>
       </c>
       <c r="K31" t="n">
-        <v>338.3721325632373</v>
+        <v>88.59171931675039</v>
       </c>
       <c r="L31" t="n">
-        <v>118.2756795898847</v>
+        <v>498.4664811971221</v>
       </c>
       <c r="M31" t="n">
         <v>542.9525463632867</v>
@@ -37004,10 +37004,10 @@
         <v>123.5517594047879</v>
       </c>
       <c r="O31" t="n">
-        <v>492.3033273977093</v>
+        <v>345.1053320652014</v>
       </c>
       <c r="P31" t="n">
-        <v>312.0865023736737</v>
+        <v>407.5829140406042</v>
       </c>
       <c r="Q31" t="n">
         <v>207.2441303235446</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>22.55341534311947</v>
+        <v>46.24766367080819</v>
       </c>
       <c r="J33" t="n">
-        <v>247.6922277628006</v>
+        <v>85.65544654410444</v>
       </c>
       <c r="K33" t="n">
         <v>159.2272445949953</v>
@@ -37168,10 +37168,10 @@
         <v>193.0118303276854</v>
       </c>
       <c r="Q33" t="n">
-        <v>120.8294896241615</v>
+        <v>152.6513151566782</v>
       </c>
       <c r="R33" t="n">
-        <v>46.16178817658189</v>
+        <v>152.6824955350726</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,25 +37229,25 @@
         <v>124.7402739698865</v>
       </c>
       <c r="K34" t="n">
-        <v>88.59171931675039</v>
+        <v>338.3721325632373</v>
       </c>
       <c r="L34" t="n">
-        <v>498.4664811971221</v>
+        <v>440.4918744510566</v>
       </c>
       <c r="M34" t="n">
-        <v>383.8101696783602</v>
+        <v>125.239939835184</v>
       </c>
       <c r="N34" t="n">
-        <v>525.6052168208284</v>
+        <v>123.5517594047879</v>
       </c>
       <c r="O34" t="n">
         <v>492.3033273977093</v>
       </c>
       <c r="P34" t="n">
-        <v>91.66755588574804</v>
+        <v>407.5829140406042</v>
       </c>
       <c r="Q34" t="n">
-        <v>54.34160771960616</v>
+        <v>207.2441303235446</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>46.24766367080819</v>
       </c>
       <c r="J36" t="n">
-        <v>85.65544654410444</v>
+        <v>223.9979794351119</v>
       </c>
       <c r="K36" t="n">
         <v>159.2272445949953</v>
@@ -37405,10 +37405,10 @@
         <v>193.0118303276854</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.6513151566782</v>
+        <v>120.8294896241615</v>
       </c>
       <c r="R36" t="n">
-        <v>152.6824955350726</v>
+        <v>46.16178817658189</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37469,16 +37469,16 @@
         <v>338.3721325632373</v>
       </c>
       <c r="L37" t="n">
-        <v>498.4664811971221</v>
+        <v>440.4918744510575</v>
       </c>
       <c r="M37" t="n">
-        <v>448.7828323852834</v>
+        <v>125.239939835184</v>
       </c>
       <c r="N37" t="n">
         <v>123.5517594047879</v>
       </c>
       <c r="O37" t="n">
-        <v>110.7858281015444</v>
+        <v>492.3033273977093</v>
       </c>
       <c r="P37" t="n">
         <v>407.5829140406042</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>22.55341534311947</v>
+        <v>46.24766367080819</v>
       </c>
       <c r="J39" t="n">
         <v>85.65544654410444</v>
@@ -37630,7 +37630,7 @@
         <v>221.7041276322519</v>
       </c>
       <c r="M39" t="n">
-        <v>317.4115974140573</v>
+        <v>261.8955235538518</v>
       </c>
       <c r="N39" t="n">
         <v>271.1921741202024</v>
@@ -37642,7 +37642,7 @@
         <v>193.0118303276854</v>
       </c>
       <c r="Q39" t="n">
-        <v>120.8294896241615</v>
+        <v>152.6513151566782</v>
       </c>
       <c r="R39" t="n">
         <v>152.6824955350726</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>46.03146927471387</v>
+        <v>124.7402739698865</v>
       </c>
       <c r="K40" t="n">
-        <v>88.59171931675039</v>
+        <v>338.3721325632373</v>
       </c>
       <c r="L40" t="n">
-        <v>418.0329092073678</v>
+        <v>498.4664811971221</v>
       </c>
       <c r="M40" t="n">
-        <v>542.9525463632867</v>
+        <v>125.239939835184</v>
       </c>
       <c r="N40" t="n">
-        <v>525.6052168208284</v>
+        <v>123.5517594047879</v>
       </c>
       <c r="O40" t="n">
-        <v>492.3033273977093</v>
+        <v>434.3287206516446</v>
       </c>
       <c r="P40" t="n">
-        <v>91.66755588574804</v>
+        <v>407.5829140406042</v>
       </c>
       <c r="Q40" t="n">
-        <v>54.34160771960616</v>
+        <v>207.2441303235446</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>22.55341534311947</v>
+        <v>46.24766367080819</v>
       </c>
       <c r="J42" t="n">
-        <v>247.6922277628006</v>
+        <v>85.65544654410444</v>
       </c>
       <c r="K42" t="n">
         <v>159.2272445949953</v>
@@ -37879,10 +37879,10 @@
         <v>193.0118303276854</v>
       </c>
       <c r="Q42" t="n">
-        <v>120.8294896241615</v>
+        <v>152.6513151566782</v>
       </c>
       <c r="R42" t="n">
-        <v>46.16178817658189</v>
+        <v>152.6824955350726</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>124.7402739698865</v>
+        <v>66.76566722382185</v>
       </c>
       <c r="K43" t="n">
         <v>338.3721325632373</v>
       </c>
       <c r="L43" t="n">
-        <v>118.2756795898847</v>
+        <v>498.4664811971221</v>
       </c>
       <c r="M43" t="n">
         <v>125.239939835184</v>
       </c>
       <c r="N43" t="n">
-        <v>525.6052168208284</v>
+        <v>123.5517594047879</v>
       </c>
       <c r="O43" t="n">
-        <v>412.4660648428409</v>
+        <v>492.3033273977093</v>
       </c>
       <c r="P43" t="n">
         <v>407.5829140406042</v>
@@ -38040,7 +38040,7 @@
         <v>190.889019006405</v>
       </c>
       <c r="R44" t="n">
-        <v>97.01952157021424</v>
+        <v>97.01952157021529</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>124.7402739698865</v>
+        <v>46.03146927471387</v>
       </c>
       <c r="K46" t="n">
-        <v>88.59171931675039</v>
+        <v>322.9112232804075</v>
       </c>
       <c r="L46" t="n">
         <v>498.4664811971221</v>
@@ -38189,7 +38189,7 @@
         <v>123.5517594047879</v>
       </c>
       <c r="O46" t="n">
-        <v>266.396527370028</v>
+        <v>110.7858281015444</v>
       </c>
       <c r="P46" t="n">
         <v>407.5829140406042</v>
